--- a/w_after replace  Employee_Process.xlsx
+++ b/w_after replace  Employee_Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="901">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -2173,6 +2173,9 @@
     <t>Legal_Commercial_Team</t>
   </si>
   <si>
+    <t>Country_Head_of_Service,Specialist_Insurance_Strategy_Germany,Head_of_European_Service_Operation_-_ESO,EU_Buyer,HQ_&amp;_Country_FBP_-_Finance_Business_Partner,Legal_Commercial_Team</t>
+  </si>
+  <si>
     <t>Head_of_Marketing_Communications_&amp;_PR_Europe,Technical_Support_Lead,EU_Product_launch_Team,Product_Experience_Operation_Manager,Experience_Manager</t>
   </si>
   <si>
@@ -2708,6 +2711,9 @@
   </si>
   <si>
     <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400498-9374</t>
+  </si>
+  <si>
+    <t>CJ todo</t>
   </si>
   <si>
     <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400217-4668</t>
@@ -3227,16 +3233,16 @@
         <v>631</v>
       </c>
       <c r="I2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="K2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="N2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O2" s="2">
         <v>44980.49791666667</v>
@@ -3265,16 +3271,16 @@
         <v>632</v>
       </c>
       <c r="I3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M3" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="N3" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O3" s="2">
         <v>44980.49791666667</v>
@@ -3306,13 +3312,13 @@
         <v>633</v>
       </c>
       <c r="K4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M4" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="N4" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O4" s="2">
         <v>44980.49791666667</v>
@@ -3344,13 +3350,13 @@
         <v>633</v>
       </c>
       <c r="K5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M5" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N5" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O5" s="2">
         <v>44980.49791666667</v>
@@ -3382,16 +3388,16 @@
         <v>634</v>
       </c>
       <c r="I6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M6" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N6" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O6" s="2">
         <v>44980.49791666667</v>
@@ -3423,16 +3429,16 @@
         <v>635</v>
       </c>
       <c r="I7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M7" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N7" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O7" s="2">
         <v>44980.49791666667</v>
@@ -3464,13 +3470,13 @@
         <v>636</v>
       </c>
       <c r="I8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M8" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="N8" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O8" s="2">
         <v>44980.49791666667</v>
@@ -3502,16 +3508,16 @@
         <v>637</v>
       </c>
       <c r="I9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="N9" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O9" s="2">
         <v>44980.49791666667</v>
@@ -3543,16 +3549,16 @@
         <v>638</v>
       </c>
       <c r="I10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M10" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="N10" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O10" s="2">
         <v>44980.49791666667</v>
@@ -3584,13 +3590,13 @@
         <v>633</v>
       </c>
       <c r="I11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M11" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N11" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O11" s="2">
         <v>44980.49791666667</v>
@@ -3622,19 +3628,19 @@
         <v>639</v>
       </c>
       <c r="I12" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K12" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M12" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N12" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O12" s="2">
         <v>44980.49791666667</v>
@@ -3666,16 +3672,16 @@
         <v>639</v>
       </c>
       <c r="I13" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M13" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N13" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O13" s="2">
         <v>44980.49791666667</v>
@@ -3707,16 +3713,16 @@
         <v>639</v>
       </c>
       <c r="I14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M14" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N14" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O14" s="2">
         <v>44980.49791666667</v>
@@ -3748,16 +3754,16 @@
         <v>640</v>
       </c>
       <c r="I15" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K15" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M15" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N15" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O15" s="2">
         <v>44980.49791666667</v>
@@ -3789,19 +3795,19 @@
         <v>640</v>
       </c>
       <c r="I16" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J16" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K16" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M16" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N16" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O16" s="2">
         <v>44980.49791666667</v>
@@ -3833,13 +3839,13 @@
         <v>640</v>
       </c>
       <c r="K17" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M17" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N17" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O17" s="2">
         <v>44980.49791666667</v>
@@ -3871,13 +3877,13 @@
         <v>640</v>
       </c>
       <c r="K18" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M18" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N18" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O18" s="2">
         <v>44980.49791666667</v>
@@ -3909,13 +3915,13 @@
         <v>640</v>
       </c>
       <c r="K19" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M19" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N19" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O19" s="2">
         <v>44980.49791666667</v>
@@ -3947,16 +3953,16 @@
         <v>640</v>
       </c>
       <c r="I20" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K20" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M20" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N20" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O20" s="2">
         <v>44980.49791666667</v>
@@ -3988,13 +3994,13 @@
         <v>640</v>
       </c>
       <c r="K21" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M21" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N21" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O21" s="2">
         <v>44980.49791666667</v>
@@ -4026,19 +4032,19 @@
         <v>641</v>
       </c>
       <c r="I22" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K22" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M22" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N22" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O22" s="2">
         <v>44980.49791666667</v>
@@ -4067,16 +4073,16 @@
         <v>642</v>
       </c>
       <c r="K23" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="M23" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N23" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O23" s="2">
         <v>44981.42430555556</v>
@@ -4108,16 +4114,16 @@
         <v>641</v>
       </c>
       <c r="I24" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K24" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M24" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N24" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O24" s="2">
         <v>44980.49791666667</v>
@@ -4149,16 +4155,16 @@
         <v>641</v>
       </c>
       <c r="I25" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K25" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M25" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N25" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O25" s="2">
         <v>44980.49791666667</v>
@@ -4190,19 +4196,19 @@
         <v>641</v>
       </c>
       <c r="I26" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J26" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K26" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M26" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N26" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O26" s="2">
         <v>44980.49791666667</v>
@@ -4234,19 +4240,19 @@
         <v>641</v>
       </c>
       <c r="I27" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J27" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K27" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M27" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N27" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O27" s="2">
         <v>44980.49791666667</v>
@@ -4278,19 +4284,19 @@
         <v>641</v>
       </c>
       <c r="I28" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J28" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="K28" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M28" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N28" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O28" s="2">
         <v>44980.49791666667</v>
@@ -4322,16 +4328,16 @@
         <v>641</v>
       </c>
       <c r="I29" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K29" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M29" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N29" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O29" s="2">
         <v>44980.49791666667</v>
@@ -4363,16 +4369,16 @@
         <v>641</v>
       </c>
       <c r="I30" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K30" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M30" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N30" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O30" s="2">
         <v>44980.49791666667</v>
@@ -4404,16 +4410,16 @@
         <v>641</v>
       </c>
       <c r="I31" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K31" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M31" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N31" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O31" s="2">
         <v>44980.49791666667</v>
@@ -4445,16 +4451,16 @@
         <v>641</v>
       </c>
       <c r="I32" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K32" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M32" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N32" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O32" s="2">
         <v>44980.49791666667</v>
@@ -4486,16 +4492,16 @@
         <v>641</v>
       </c>
       <c r="I33" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K33" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M33" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N33" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O33" s="2">
         <v>44980.49791666667</v>
@@ -4527,19 +4533,19 @@
         <v>641</v>
       </c>
       <c r="I34" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J34" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K34" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M34" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N34" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O34" s="2">
         <v>44980.49791666667</v>
@@ -4571,16 +4577,16 @@
         <v>641</v>
       </c>
       <c r="I35" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K35" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M35" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N35" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O35" s="2">
         <v>44980.49791666667</v>
@@ -4612,16 +4618,16 @@
         <v>641</v>
       </c>
       <c r="I36" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K36" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M36" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N36" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O36" s="2">
         <v>44980.49791666667</v>
@@ -4653,16 +4659,16 @@
         <v>641</v>
       </c>
       <c r="I37" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K37" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M37" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N37" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O37" s="2">
         <v>44980.49791666667</v>
@@ -4694,16 +4700,16 @@
         <v>641</v>
       </c>
       <c r="I38" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K38" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M38" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N38" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O38" s="2">
         <v>44980.49791666667</v>
@@ -4735,16 +4741,16 @@
         <v>641</v>
       </c>
       <c r="I39" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K39" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M39" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N39" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O39" s="2">
         <v>44980.49791666667</v>
@@ -4776,19 +4782,19 @@
         <v>641</v>
       </c>
       <c r="I40" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J40" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K40" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M40" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N40" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O40" s="2">
         <v>44980.49791666667</v>
@@ -4820,16 +4826,16 @@
         <v>641</v>
       </c>
       <c r="I41" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K41" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M41" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N41" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O41" s="2">
         <v>44980.49791666667</v>
@@ -4861,16 +4867,16 @@
         <v>641</v>
       </c>
       <c r="I42" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K42" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M42" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N42" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O42" s="2">
         <v>44980.49791666667</v>
@@ -4902,16 +4908,16 @@
         <v>641</v>
       </c>
       <c r="I43" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K43" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M43" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N43" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O43" s="2">
         <v>44980.49791666667</v>
@@ -4943,16 +4949,16 @@
         <v>641</v>
       </c>
       <c r="I44" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K44" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M44" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N44" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O44" s="2">
         <v>44980.49791666667</v>
@@ -4984,16 +4990,16 @@
         <v>641</v>
       </c>
       <c r="I45" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K45" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M45" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N45" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O45" s="2">
         <v>44980.49791666667</v>
@@ -5025,16 +5031,16 @@
         <v>641</v>
       </c>
       <c r="I46" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K46" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M46" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N46" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O46" s="2">
         <v>44980.49791666667</v>
@@ -5060,19 +5066,19 @@
         <v>643</v>
       </c>
       <c r="I47" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K47" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="M47" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N47" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O47" s="2">
         <v>44981.41180555556</v>
@@ -5098,16 +5104,16 @@
         <v>580</v>
       </c>
       <c r="I48" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K48" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M48" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N48" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O48" s="2">
         <v>44980.49791666667</v>
@@ -5139,19 +5145,19 @@
         <v>644</v>
       </c>
       <c r="I49" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K49" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="M49" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N49" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O49" s="2">
         <v>44981.41736111111</v>
@@ -5183,19 +5189,19 @@
         <v>645</v>
       </c>
       <c r="I50" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K50" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="M50" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N50" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O50" s="2">
         <v>44981.41875</v>
@@ -5227,19 +5233,19 @@
         <v>646</v>
       </c>
       <c r="I51" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="K51" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M51" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N51" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O51" s="2">
         <v>44981.42083333333</v>
@@ -5262,10 +5268,10 @@
         <v>588</v>
       </c>
       <c r="M52" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N52" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O52" s="2">
         <v>44980.49791666667</v>
@@ -5288,10 +5294,10 @@
         <v>588</v>
       </c>
       <c r="M53" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N53" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O53" s="2">
         <v>44980.49791666667</v>
@@ -5314,10 +5320,10 @@
         <v>588</v>
       </c>
       <c r="M54" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N54" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O54" s="2">
         <v>44980.49791666667</v>
@@ -5340,10 +5346,10 @@
         <v>588</v>
       </c>
       <c r="M55" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N55" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O55" s="2">
         <v>44980.49791666667</v>
@@ -5366,10 +5372,10 @@
         <v>588</v>
       </c>
       <c r="M56" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N56" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O56" s="2">
         <v>44980.49791666667</v>
@@ -5392,10 +5398,10 @@
         <v>588</v>
       </c>
       <c r="M57" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N57" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O57" s="2">
         <v>44980.49791666667</v>
@@ -5418,10 +5424,10 @@
         <v>588</v>
       </c>
       <c r="M58" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N58" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O58" s="2">
         <v>44980.49791666667</v>
@@ -5444,10 +5450,10 @@
         <v>588</v>
       </c>
       <c r="M59" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N59" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O59" s="2">
         <v>44980.49791666667</v>
@@ -5470,10 +5476,10 @@
         <v>588</v>
       </c>
       <c r="M60" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N60" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O60" s="2">
         <v>44980.49791666667</v>
@@ -5496,10 +5502,10 @@
         <v>588</v>
       </c>
       <c r="M61" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N61" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O61" s="2">
         <v>44980.49791666667</v>
@@ -5522,10 +5528,10 @@
         <v>588</v>
       </c>
       <c r="M62" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N62" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O62" s="2">
         <v>44980.49791666667</v>
@@ -5548,10 +5554,10 @@
         <v>588</v>
       </c>
       <c r="M63" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N63" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O63" s="2">
         <v>44980.49791666667</v>
@@ -5574,10 +5580,10 @@
         <v>588</v>
       </c>
       <c r="M64" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N64" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O64" s="2">
         <v>44980.49791666667</v>
@@ -5600,10 +5606,10 @@
         <v>588</v>
       </c>
       <c r="M65" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N65" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O65" s="2">
         <v>44980.49791666667</v>
@@ -5626,10 +5632,10 @@
         <v>588</v>
       </c>
       <c r="M66" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N66" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O66" s="2">
         <v>44980.49791666667</v>
@@ -5652,10 +5658,10 @@
         <v>588</v>
       </c>
       <c r="M67" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N67" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O67" s="2">
         <v>44980.49791666667</v>
@@ -5678,10 +5684,10 @@
         <v>588</v>
       </c>
       <c r="M68" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N68" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O68" s="2">
         <v>44980.49791666667</v>
@@ -5710,19 +5716,19 @@
         <v>647</v>
       </c>
       <c r="I69" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J69" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K69" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M69" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N69" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O69" s="2">
         <v>44980.49791666667</v>
@@ -5748,19 +5754,19 @@
         <v>580</v>
       </c>
       <c r="I70" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J70" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K70" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M70" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N70" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O70" s="2">
         <v>44980.49791666667</v>
@@ -5792,16 +5798,16 @@
         <v>648</v>
       </c>
       <c r="I71" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K71" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M71" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N71" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O71" s="2">
         <v>44980.49791666667</v>
@@ -5830,16 +5836,16 @@
         <v>580</v>
       </c>
       <c r="I72" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K72" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M72" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N72" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O72" s="2">
         <v>44980.49791666667</v>
@@ -5871,16 +5877,16 @@
         <v>649</v>
       </c>
       <c r="I73" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K73" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M73" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N73" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O73" s="2">
         <v>44980.49791666667</v>
@@ -5909,19 +5915,19 @@
         <v>650</v>
       </c>
       <c r="I74" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J74" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="K74" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M74" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N74" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O74" s="2">
         <v>44980.49791666667</v>
@@ -5953,16 +5959,16 @@
         <v>651</v>
       </c>
       <c r="I75" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K75" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M75" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N75" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O75" s="2">
         <v>44980.49791666667</v>
@@ -5985,13 +5991,13 @@
         <v>445</v>
       </c>
       <c r="K76" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M76" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N76" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O76" s="2">
         <v>44980.49791666667</v>
@@ -6017,16 +6023,16 @@
         <v>580</v>
       </c>
       <c r="J77" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K77" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="M77" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N77" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O77" s="2">
         <v>44980.49791666667</v>
@@ -6058,16 +6064,16 @@
         <v>652</v>
       </c>
       <c r="I78" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K78" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M78" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N78" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O78" s="2">
         <v>44980.49791666667</v>
@@ -6099,16 +6105,16 @@
         <v>653</v>
       </c>
       <c r="I79" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="K79" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M79" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N79" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O79" s="2">
         <v>44980.49791666667</v>
@@ -6140,16 +6146,16 @@
         <v>654</v>
       </c>
       <c r="I80" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K80" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M80" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N80" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O80" s="2">
         <v>44980.49791666667</v>
@@ -6175,16 +6181,16 @@
         <v>580</v>
       </c>
       <c r="J81" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="K81" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M81" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N81" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O81" s="2">
         <v>44980.49791666667</v>
@@ -6216,16 +6222,16 @@
         <v>654</v>
       </c>
       <c r="I82" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K82" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M82" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N82" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O82" s="2">
         <v>44980.49791666667</v>
@@ -6257,16 +6263,16 @@
         <v>655</v>
       </c>
       <c r="I83" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K83" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M83" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N83" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O83" s="2">
         <v>44980.49791666667</v>
@@ -6298,16 +6304,16 @@
         <v>655</v>
       </c>
       <c r="I84" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K84" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M84" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N84" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O84" s="2">
         <v>44980.49791666667</v>
@@ -6333,16 +6339,16 @@
         <v>580</v>
       </c>
       <c r="J85" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="K85" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M85" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N85" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O85" s="2">
         <v>44980.49791666667</v>
@@ -6374,16 +6380,16 @@
         <v>656</v>
       </c>
       <c r="I86" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K86" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M86" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N86" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O86" s="2">
         <v>44980.49791666667</v>
@@ -6415,16 +6421,16 @@
         <v>657</v>
       </c>
       <c r="I87" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K87" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M87" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N87" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O87" s="2">
         <v>44980.49791666667</v>
@@ -6456,16 +6462,16 @@
         <v>654</v>
       </c>
       <c r="I88" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="K88" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M88" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N88" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O88" s="2">
         <v>44980.49791666667</v>
@@ -6497,16 +6503,16 @@
         <v>658</v>
       </c>
       <c r="I89" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K89" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M89" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N89" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O89" s="2">
         <v>44980.49791666667</v>
@@ -6538,16 +6544,16 @@
         <v>659</v>
       </c>
       <c r="I90" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K90" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M90" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N90" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O90" s="2">
         <v>44980.49791666667</v>
@@ -6579,16 +6585,16 @@
         <v>660</v>
       </c>
       <c r="I91" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K91" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M91" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N91" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O91" s="2">
         <v>44980.49791666667</v>
@@ -6620,16 +6626,16 @@
         <v>661</v>
       </c>
       <c r="I92" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K92" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M92" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N92" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O92" s="2">
         <v>44980.49791666667</v>
@@ -6661,16 +6667,16 @@
         <v>662</v>
       </c>
       <c r="I93" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K93" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M93" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N93" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O93" s="2">
         <v>44980.49791666667</v>
@@ -6696,16 +6702,16 @@
         <v>580</v>
       </c>
       <c r="J94" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K94" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M94" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N94" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O94" s="2">
         <v>44980.49791666667</v>
@@ -6737,16 +6743,16 @@
         <v>663</v>
       </c>
       <c r="I95" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K95" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M95" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N95" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O95" s="2">
         <v>44980.49791666667</v>
@@ -6778,16 +6784,16 @@
         <v>664</v>
       </c>
       <c r="I96" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K96" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M96" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N96" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O96" s="2">
         <v>44980.49791666667</v>
@@ -6819,16 +6825,16 @@
         <v>654</v>
       </c>
       <c r="I97" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K97" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M97" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N97" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O97" s="2">
         <v>44980.49791666667</v>
@@ -6860,13 +6866,13 @@
         <v>665</v>
       </c>
       <c r="K98" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="M98" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N98" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O98" s="2">
         <v>44980.49791666667</v>
@@ -6895,16 +6901,16 @@
         <v>666</v>
       </c>
       <c r="I99" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K99" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M99" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N99" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O99" s="2">
         <v>44980.49791666667</v>
@@ -6924,13 +6930,13 @@
         <v>278</v>
       </c>
       <c r="K100" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="M100" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N100" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O100" s="2">
         <v>44980.49791666667</v>
@@ -6962,16 +6968,16 @@
         <v>654</v>
       </c>
       <c r="I101" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K101" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M101" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N101" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O101" s="2">
         <v>44980.49791666667</v>
@@ -7000,19 +7006,19 @@
         <v>592</v>
       </c>
       <c r="I102" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J102" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="K102" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M102" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N102" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O102" s="2">
         <v>44980.77708333333</v>
@@ -7038,16 +7044,16 @@
         <v>593</v>
       </c>
       <c r="I103" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K103" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M103" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N103" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O103" s="2">
         <v>44980.7875</v>
@@ -7073,16 +7079,16 @@
         <v>580</v>
       </c>
       <c r="I104" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K104" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M104" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N104" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O104" s="2">
         <v>44980.82916666667</v>
@@ -7108,16 +7114,16 @@
         <v>580</v>
       </c>
       <c r="I105" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K105" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M105" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N105" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O105" s="2">
         <v>44980.83055555556</v>
@@ -7149,22 +7155,22 @@
         <v>667</v>
       </c>
       <c r="I106" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J106" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K106" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M106" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N106" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O106" s="2">
         <v>44981.60833333333</v>
@@ -7196,16 +7202,16 @@
         <v>668</v>
       </c>
       <c r="I107" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K107" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M107" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N107" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O107" s="2">
         <v>44980.84166666667</v>
@@ -7237,16 +7243,16 @@
         <v>668</v>
       </c>
       <c r="I108" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K108" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M108" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N108" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O108" s="2">
         <v>44980.85208333333</v>
@@ -7278,16 +7284,16 @@
         <v>668</v>
       </c>
       <c r="I109" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K109" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M109" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N109" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O109" s="2">
         <v>44980.85486111111</v>
@@ -7319,16 +7325,16 @@
         <v>669</v>
       </c>
       <c r="I110" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K110" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M110" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N110" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O110" s="2">
         <v>44980.85763888889</v>
@@ -7360,16 +7366,16 @@
         <v>669</v>
       </c>
       <c r="I111" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K111" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M111" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N111" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O111" s="2">
         <v>44980.86041666667</v>
@@ -7392,13 +7398,13 @@
         <v>316</v>
       </c>
       <c r="K112" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M112" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N112" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O112" s="2">
         <v>44981.59027777778</v>
@@ -7421,10 +7427,10 @@
         <v>316</v>
       </c>
       <c r="M113" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N113" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O113" s="2">
         <v>44981.59166666667</v>
@@ -7447,10 +7453,10 @@
         <v>316</v>
       </c>
       <c r="M114" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N114" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O114" s="2">
         <v>44981.59305555555</v>
@@ -7473,10 +7479,10 @@
         <v>316</v>
       </c>
       <c r="M115" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N115" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O115" s="2">
         <v>44981.59305555555</v>
@@ -7499,10 +7505,10 @@
         <v>316</v>
       </c>
       <c r="M116" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N116" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O116" s="2">
         <v>44981.59305555555</v>
@@ -7525,10 +7531,10 @@
         <v>316</v>
       </c>
       <c r="M117" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N117" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O117" s="2">
         <v>44981.59305555555</v>
@@ -7551,10 +7557,10 @@
         <v>316</v>
       </c>
       <c r="M118" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N118" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O118" s="2">
         <v>44981.59305555555</v>
@@ -7586,16 +7592,16 @@
         <v>670</v>
       </c>
       <c r="I119" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K119" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M119" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N119" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O119" s="2">
         <v>44980.49791666667</v>
@@ -7618,19 +7624,19 @@
         <v>481</v>
       </c>
       <c r="I120" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J120" t="s">
         <v>131</v>
       </c>
       <c r="K120" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M120" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N120" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O120" s="2">
         <v>44980.49791666667</v>
@@ -7659,22 +7665,22 @@
         <v>671</v>
       </c>
       <c r="I121" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J121" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="K121" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="M121" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N121" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O121" s="2">
         <v>44981.37013888889</v>
@@ -7703,22 +7709,22 @@
         <v>672</v>
       </c>
       <c r="I122" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J122" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="K122" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M122" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N122" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O122" s="2">
         <v>44981.37291666667</v>
@@ -7747,22 +7753,22 @@
         <v>673</v>
       </c>
       <c r="I123" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J123" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="K123" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="M123" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N123" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O123" s="2">
         <v>44981.37430555555</v>
@@ -7791,19 +7797,19 @@
         <v>674</v>
       </c>
       <c r="I124" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J124" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="K124" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M124" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N124" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O124" s="2">
         <v>44981.36458333334</v>
@@ -7829,16 +7835,16 @@
         <v>675</v>
       </c>
       <c r="I125" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K125" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M125" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N125" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O125" s="2">
         <v>44981.36458333334</v>
@@ -7864,16 +7870,16 @@
         <v>675</v>
       </c>
       <c r="I126" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K126" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M126" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N126" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O126" s="2">
         <v>44981.36458333334</v>
@@ -7899,16 +7905,16 @@
         <v>675</v>
       </c>
       <c r="I127" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K127" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M127" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N127" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O127" s="2">
         <v>44981.36458333334</v>
@@ -7934,16 +7940,16 @@
         <v>673</v>
       </c>
       <c r="I128" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K128" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M128" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N128" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O128" s="2">
         <v>44981.36458333334</v>
@@ -7969,16 +7975,16 @@
         <v>673</v>
       </c>
       <c r="I129" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K129" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M129" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N129" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O129" s="2">
         <v>44981.36458333334</v>
@@ -8004,16 +8010,16 @@
         <v>676</v>
       </c>
       <c r="I130" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K130" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M130" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N130" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O130" s="2">
         <v>44981.36458333334</v>
@@ -8039,16 +8045,16 @@
         <v>676</v>
       </c>
       <c r="I131" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K131" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M131" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N131" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O131" s="2">
         <v>44981.36458333334</v>
@@ -8074,16 +8080,16 @@
         <v>676</v>
       </c>
       <c r="I132" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K132" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M132" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N132" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O132" s="2">
         <v>44981.36458333334</v>
@@ -8109,16 +8115,16 @@
         <v>676</v>
       </c>
       <c r="I133" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K133" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M133" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N133" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O133" s="2">
         <v>44981.36458333334</v>
@@ -8150,19 +8156,19 @@
         <v>677</v>
       </c>
       <c r="I134" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J134" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K134" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M134" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N134" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O134" s="2">
         <v>44980.49791666667</v>
@@ -8194,19 +8200,19 @@
         <v>677</v>
       </c>
       <c r="I135" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J135" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="K135" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M135" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N135" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O135" s="2">
         <v>44980.49791666667</v>
@@ -8235,16 +8241,16 @@
         <v>677</v>
       </c>
       <c r="I136" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K136" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M136" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N136" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O136" s="2">
         <v>44980.49791666667</v>
@@ -8276,19 +8282,19 @@
         <v>677</v>
       </c>
       <c r="I137" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J137" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K137" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M137" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N137" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O137" s="2">
         <v>44980.49791666667</v>
@@ -8317,16 +8323,16 @@
         <v>677</v>
       </c>
       <c r="I138" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K138" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M138" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N138" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O138" s="2">
         <v>44980.49791666667</v>
@@ -8355,16 +8361,16 @@
         <v>677</v>
       </c>
       <c r="I139" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K139" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M139" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N139" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O139" s="2">
         <v>44980.49791666667</v>
@@ -8393,16 +8399,16 @@
         <v>677</v>
       </c>
       <c r="I140" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K140" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M140" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N140" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O140" s="2">
         <v>44980.49791666667</v>
@@ -8431,16 +8437,16 @@
         <v>677</v>
       </c>
       <c r="I141" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K141" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M141" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N141" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O141" s="2">
         <v>44980.49791666667</v>
@@ -8472,16 +8478,16 @@
         <v>677</v>
       </c>
       <c r="I142" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K142" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M142" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N142" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O142" s="2">
         <v>44980.49791666667</v>
@@ -8510,16 +8516,16 @@
         <v>677</v>
       </c>
       <c r="I143" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K143" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M143" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="N143" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O143" s="2">
         <v>44980.49791666667</v>
@@ -8551,13 +8557,13 @@
         <v>678</v>
       </c>
       <c r="I144" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M144" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="N144" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O144" s="2">
         <v>44980.49791666667</v>
@@ -8589,16 +8595,16 @@
         <v>679</v>
       </c>
       <c r="I145" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K145" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M145" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="N145" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O145" s="2">
         <v>44980.49791666667</v>
@@ -8630,13 +8636,13 @@
         <v>680</v>
       </c>
       <c r="I146" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M146" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="N146" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O146" s="2">
         <v>44980.49791666667</v>
@@ -8668,13 +8674,13 @@
         <v>681</v>
       </c>
       <c r="I147" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M147" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="N147" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O147" s="2">
         <v>44980.49791666667</v>
@@ -8706,13 +8712,13 @@
         <v>681</v>
       </c>
       <c r="I148" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M148" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="N148" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O148" s="2">
         <v>44980.49791666667</v>
@@ -8744,13 +8750,13 @@
         <v>682</v>
       </c>
       <c r="I149" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M149" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="N149" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O149" s="2">
         <v>44981.57986111111</v>
@@ -8782,13 +8788,13 @@
         <v>683</v>
       </c>
       <c r="I150" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M150" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="N150" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O150" s="2">
         <v>44981.57986111111</v>
@@ -8820,13 +8826,13 @@
         <v>684</v>
       </c>
       <c r="I151" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M151" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N151" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O151" s="2">
         <v>44980.49791666667</v>
@@ -8858,13 +8864,13 @@
         <v>685</v>
       </c>
       <c r="I152" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M152" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N152" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O152" s="2">
         <v>44980.49791666667</v>
@@ -8896,13 +8902,13 @@
         <v>686</v>
       </c>
       <c r="I153" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M153" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N153" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O153" s="2">
         <v>44980.49791666667</v>
@@ -8934,13 +8940,13 @@
         <v>687</v>
       </c>
       <c r="I154" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M154" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N154" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O154" s="2">
         <v>44980.49791666667</v>
@@ -8972,13 +8978,13 @@
         <v>687</v>
       </c>
       <c r="I155" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M155" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N155" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O155" s="2">
         <v>44980.49791666667</v>
@@ -9010,13 +9016,13 @@
         <v>688</v>
       </c>
       <c r="I156" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M156" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N156" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O156" s="2">
         <v>44980.49791666667</v>
@@ -9048,13 +9054,13 @@
         <v>689</v>
       </c>
       <c r="I157" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M157" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N157" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O157" s="2">
         <v>44980.49791666667</v>
@@ -9086,13 +9092,13 @@
         <v>690</v>
       </c>
       <c r="I158" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M158" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N158" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O158" s="2">
         <v>44980.49791666667</v>
@@ -9124,10 +9130,10 @@
         <v>361</v>
       </c>
       <c r="M159" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N159" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O159" s="2">
         <v>44980.58472222222</v>
@@ -9156,13 +9162,13 @@
         <v>692</v>
       </c>
       <c r="K160" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M160" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N160" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O160" s="2">
         <v>44980.58472222222</v>
@@ -9194,10 +9200,10 @@
         <v>363</v>
       </c>
       <c r="M161" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N161" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O161" s="2">
         <v>44980.58472222222</v>
@@ -9226,10 +9232,10 @@
         <v>364</v>
       </c>
       <c r="M162" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N162" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O162" s="2">
         <v>44980.58541666667</v>
@@ -9258,10 +9264,10 @@
         <v>365</v>
       </c>
       <c r="M163" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N163" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O163" s="2">
         <v>44980.58541666667</v>
@@ -9290,10 +9296,10 @@
         <v>366</v>
       </c>
       <c r="M164" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N164" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O164" s="2">
         <v>44980.58541666667</v>
@@ -9322,10 +9328,10 @@
         <v>367</v>
       </c>
       <c r="M165" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N165" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O165" s="2">
         <v>44980.58541666667</v>
@@ -9354,10 +9360,10 @@
         <v>368</v>
       </c>
       <c r="M166" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N166" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O166" s="2">
         <v>44980.58541666667</v>
@@ -9386,10 +9392,10 @@
         <v>369</v>
       </c>
       <c r="M167" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N167" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O167" s="2">
         <v>44980.58611111111</v>
@@ -9418,10 +9424,10 @@
         <v>370</v>
       </c>
       <c r="M168" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N168" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O168" s="2">
         <v>44980.58611111111</v>
@@ -9450,10 +9456,10 @@
         <v>371</v>
       </c>
       <c r="M169" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N169" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O169" s="2">
         <v>44980.58611111111</v>
@@ -9476,10 +9482,10 @@
         <v>505</v>
       </c>
       <c r="M170" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N170" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O170" s="2">
         <v>44980.49791666667</v>
@@ -9511,19 +9517,22 @@
         <v>694</v>
       </c>
       <c r="I171" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="K171" t="s">
-        <v>843</v>
+        <v>844</v>
+      </c>
+      <c r="L171" t="s">
+        <v>877</v>
       </c>
       <c r="M171" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N171" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O171" s="2">
-        <v>44981.65138888889</v>
+        <v>44981.65625</v>
       </c>
     </row>
     <row r="172" spans="1:15">
@@ -9552,19 +9561,22 @@
         <v>695</v>
       </c>
       <c r="I172" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K172" t="s">
-        <v>844</v>
+        <v>845</v>
+      </c>
+      <c r="L172" t="s">
+        <v>877</v>
       </c>
       <c r="M172" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N172" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O172" s="2">
-        <v>44981.65138888889</v>
+        <v>44981.65625</v>
       </c>
     </row>
     <row r="173" spans="1:15">
@@ -9593,19 +9605,22 @@
         <v>694</v>
       </c>
       <c r="I173" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K173" t="s">
-        <v>845</v>
+        <v>846</v>
+      </c>
+      <c r="L173" t="s">
+        <v>877</v>
       </c>
       <c r="M173" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N173" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O173" s="2">
-        <v>44981.65138888889</v>
+        <v>44981.65625</v>
       </c>
     </row>
     <row r="174" spans="1:15">
@@ -9634,19 +9649,22 @@
         <v>694</v>
       </c>
       <c r="I174" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="K174" t="s">
-        <v>846</v>
+        <v>847</v>
+      </c>
+      <c r="L174" t="s">
+        <v>877</v>
       </c>
       <c r="M174" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N174" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O174" s="2">
-        <v>44981.65138888889</v>
+        <v>44981.65625</v>
       </c>
     </row>
     <row r="175" spans="1:15">
@@ -9675,16 +9693,16 @@
         <v>696</v>
       </c>
       <c r="I175" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J175" t="s">
         <v>188</v>
       </c>
       <c r="M175" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N175" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O175" s="2">
         <v>44980.49791666667</v>
@@ -9716,16 +9734,16 @@
         <v>696</v>
       </c>
       <c r="I176" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K176" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M176" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N176" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O176" s="2">
         <v>44980.49791666667</v>
@@ -9754,16 +9772,16 @@
         <v>580</v>
       </c>
       <c r="J177" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M177" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N177" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O177" s="2">
-        <v>44980.49791666667</v>
+        <v>44981.65694444445</v>
       </c>
     </row>
     <row r="178" spans="1:15">
@@ -9788,20 +9806,26 @@
       <c r="G178" t="s">
         <v>613</v>
       </c>
+      <c r="H178" t="s">
+        <v>697</v>
+      </c>
       <c r="I178" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K178" t="s">
-        <v>847</v>
+        <v>848</v>
+      </c>
+      <c r="L178" t="s">
+        <v>877</v>
       </c>
       <c r="M178" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N178" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O178" s="2">
-        <v>44980.49791666667</v>
+        <v>44981.65694444445</v>
       </c>
     </row>
     <row r="179" spans="1:15">
@@ -9826,20 +9850,26 @@
       <c r="G179" t="s">
         <v>614</v>
       </c>
+      <c r="H179" t="s">
+        <v>697</v>
+      </c>
       <c r="I179" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="K179" t="s">
-        <v>847</v>
+        <v>848</v>
+      </c>
+      <c r="L179" t="s">
+        <v>877</v>
       </c>
       <c r="M179" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N179" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O179" s="2">
-        <v>44980.49791666667</v>
+        <v>44981.65694444445</v>
       </c>
     </row>
     <row r="180" spans="1:15">
@@ -9865,10 +9895,10 @@
         <v>580</v>
       </c>
       <c r="M180" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N180" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O180" s="2">
         <v>44980.49791666667</v>
@@ -9897,16 +9927,16 @@
         <v>580</v>
       </c>
       <c r="I181" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K181" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M181" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N181" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O181" s="2">
         <v>44980.49791666667</v>
@@ -9929,10 +9959,10 @@
         <v>516</v>
       </c>
       <c r="M182" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N182" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O182" s="2">
         <v>44980.49791666667</v>
@@ -9961,13 +9991,13 @@
         <v>580</v>
       </c>
       <c r="J183" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M183" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N183" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O183" s="2">
         <v>44980.49791666667</v>
@@ -9996,16 +10026,16 @@
         <v>580</v>
       </c>
       <c r="I184" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K184" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="M184" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N184" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O184" s="2">
         <v>44980.49791666667</v>
@@ -10034,16 +10064,16 @@
         <v>580</v>
       </c>
       <c r="I185" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K185" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M185" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N185" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O185" s="2">
         <v>44980.49791666667</v>
@@ -10072,16 +10102,16 @@
         <v>580</v>
       </c>
       <c r="I186" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K186" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="M186" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N186" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O186" s="2">
         <v>44980.49791666667</v>
@@ -10110,16 +10140,16 @@
         <v>580</v>
       </c>
       <c r="I187" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K187" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="M187" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N187" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O187" s="2">
         <v>44980.49791666667</v>
@@ -10148,13 +10178,13 @@
         <v>580</v>
       </c>
       <c r="J188" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M188" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N188" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O188" s="2">
         <v>44980.49791666667</v>
@@ -10183,16 +10213,16 @@
         <v>580</v>
       </c>
       <c r="I189" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K189" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M189" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N189" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O189" s="2">
         <v>44980.49791666667</v>
@@ -10215,10 +10245,10 @@
         <v>524</v>
       </c>
       <c r="M190" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N190" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O190" s="2">
         <v>44980.49791666667</v>
@@ -10247,13 +10277,13 @@
         <v>580</v>
       </c>
       <c r="J191" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M191" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N191" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O191" s="2">
         <v>44980.49791666667</v>
@@ -10282,16 +10312,16 @@
         <v>615</v>
       </c>
       <c r="I192" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K192" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M192" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N192" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O192" s="2">
         <v>44980.49791666667</v>
@@ -10320,16 +10350,16 @@
         <v>580</v>
       </c>
       <c r="I193" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="K193" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M193" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N193" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O193" s="2">
         <v>44980.49791666667</v>
@@ -10358,16 +10388,16 @@
         <v>580</v>
       </c>
       <c r="I194" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K194" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M194" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N194" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O194" s="2">
         <v>44980.49791666667</v>
@@ -10396,16 +10426,16 @@
         <v>616</v>
       </c>
       <c r="I195" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K195" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M195" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N195" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O195" s="2">
         <v>44980.49791666667</v>
@@ -10434,16 +10464,16 @@
         <v>617</v>
       </c>
       <c r="I196" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K196" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M196" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N196" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O196" s="2">
         <v>44980.49791666667</v>
@@ -10472,16 +10502,16 @@
         <v>618</v>
       </c>
       <c r="I197" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K197" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M197" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N197" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O197" s="2">
         <v>44980.49791666667</v>
@@ -10510,16 +10540,16 @@
         <v>619</v>
       </c>
       <c r="I198" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K198" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M198" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N198" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O198" s="2">
         <v>44980.49791666667</v>
@@ -10548,16 +10578,16 @@
         <v>620</v>
       </c>
       <c r="I199" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K199" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M199" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N199" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O199" s="2">
         <v>44980.49791666667</v>
@@ -10586,16 +10616,16 @@
         <v>580</v>
       </c>
       <c r="I200" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K200" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M200" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N200" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O200" s="2">
         <v>44980.49791666667</v>
@@ -10624,16 +10654,16 @@
         <v>580</v>
       </c>
       <c r="I201" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K201" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M201" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N201" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O201" s="2">
         <v>44980.49791666667</v>
@@ -10662,13 +10692,13 @@
         <v>580</v>
       </c>
       <c r="J202" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M202" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N202" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O202" s="2">
         <v>44980.49791666667</v>
@@ -10697,16 +10727,16 @@
         <v>580</v>
       </c>
       <c r="I203" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K203" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M203" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N203" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O203" s="2">
         <v>44980.49791666667</v>
@@ -10735,16 +10765,16 @@
         <v>580</v>
       </c>
       <c r="I204" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K204" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M204" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N204" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O204" s="2">
         <v>44980.49791666667</v>
@@ -10773,13 +10803,13 @@
         <v>621</v>
       </c>
       <c r="I205" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M205" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N205" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O205" s="2">
         <v>44980.49791666667</v>
@@ -10808,16 +10838,16 @@
         <v>622</v>
       </c>
       <c r="I206" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K206" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="M206" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N206" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O206" s="2">
         <v>44980.49791666667</v>
@@ -10846,16 +10876,16 @@
         <v>580</v>
       </c>
       <c r="I207" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="K207" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="M207" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N207" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O207" s="2">
         <v>44980.49791666667</v>
@@ -10884,13 +10914,13 @@
         <v>580</v>
       </c>
       <c r="K208" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="M208" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N208" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O208" s="2">
         <v>44980.49791666667</v>
@@ -10913,10 +10943,10 @@
         <v>524</v>
       </c>
       <c r="M209" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N209" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O209" s="2">
         <v>44980.49791666667</v>
@@ -10948,10 +10978,10 @@
         <v>223</v>
       </c>
       <c r="M210" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N210" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O210" s="2">
         <v>44980.49791666667</v>
@@ -10980,19 +11010,19 @@
         <v>580</v>
       </c>
       <c r="I211" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J211" t="s">
         <v>223</v>
       </c>
       <c r="K211" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M211" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N211" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O211" s="2">
         <v>44980.49791666667</v>
@@ -11021,13 +11051,13 @@
         <v>580</v>
       </c>
       <c r="J212" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M212" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N212" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O212" s="2">
         <v>44980.49791666667</v>
@@ -11056,16 +11086,16 @@
         <v>580</v>
       </c>
       <c r="I213" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K213" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="M213" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N213" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O213" s="2">
         <v>44980.49791666667</v>
@@ -11088,13 +11118,13 @@
         <v>524</v>
       </c>
       <c r="I214" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M214" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N214" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O214" s="2">
         <v>44980.49791666667</v>
@@ -11123,16 +11153,16 @@
         <v>580</v>
       </c>
       <c r="I215" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K215" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M215" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N215" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O215" s="2">
         <v>44980.49791666667</v>
@@ -11155,13 +11185,13 @@
         <v>524</v>
       </c>
       <c r="I216" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M216" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N216" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O216" s="2">
         <v>44980.49791666667</v>
@@ -11193,10 +11223,10 @@
         <v>230</v>
       </c>
       <c r="M217" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N217" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O217" s="2">
         <v>44980.49791666667</v>
@@ -11225,16 +11255,16 @@
         <v>580</v>
       </c>
       <c r="I218" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K218" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M218" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N218" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O218" s="2">
         <v>44980.49791666667</v>
@@ -11266,10 +11296,10 @@
         <v>232</v>
       </c>
       <c r="M219" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N219" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O219" s="2">
         <v>44980.49791666667</v>
@@ -11298,16 +11328,16 @@
         <v>580</v>
       </c>
       <c r="I220" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K220" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M220" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N220" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O220" s="2">
         <v>44980.49791666667</v>
@@ -11336,13 +11366,13 @@
         <v>580</v>
       </c>
       <c r="J221" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M221" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N221" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O221" s="2">
         <v>44980.49791666667</v>
@@ -11371,13 +11401,13 @@
         <v>580</v>
       </c>
       <c r="J222" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M222" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N222" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O222" s="2">
         <v>44980.49791666667</v>
@@ -11406,16 +11436,16 @@
         <v>580</v>
       </c>
       <c r="I223" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K223" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M223" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N223" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O223" s="2">
         <v>44980.49791666667</v>
@@ -11444,16 +11474,16 @@
         <v>580</v>
       </c>
       <c r="I224" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K224" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M224" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N224" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O224" s="2">
         <v>44980.49791666667</v>
@@ -11476,10 +11506,10 @@
         <v>524</v>
       </c>
       <c r="M225" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N225" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O225" s="2">
         <v>44980.49791666667</v>
@@ -11502,10 +11532,10 @@
         <v>524</v>
       </c>
       <c r="M226" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N226" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O226" s="2">
         <v>44980.49791666667</v>
@@ -11531,10 +11561,10 @@
         <v>580</v>
       </c>
       <c r="M227" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N227" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O227" s="2">
         <v>44980.49791666667</v>
@@ -11563,16 +11593,16 @@
         <v>623</v>
       </c>
       <c r="I228" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="K228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="M228" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N228" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O228" s="2">
         <v>44980.49791666667</v>
@@ -11595,10 +11625,10 @@
         <v>524</v>
       </c>
       <c r="M229" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N229" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O229" s="2">
         <v>44980.49791666667</v>
@@ -11630,10 +11660,10 @@
         <v>243</v>
       </c>
       <c r="M230" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N230" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O230" s="2">
         <v>44980.49791666667</v>
@@ -11665,10 +11695,10 @@
         <v>244</v>
       </c>
       <c r="M231" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N231" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O231" s="2">
         <v>44980.49791666667</v>
@@ -11697,16 +11727,16 @@
         <v>580</v>
       </c>
       <c r="I232" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K232" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M232" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N232" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O232" s="2">
         <v>44980.49791666667</v>
@@ -11738,10 +11768,10 @@
         <v>246</v>
       </c>
       <c r="M233" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N233" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O233" s="2">
         <v>44980.49791666667</v>
@@ -11764,13 +11794,13 @@
         <v>391</v>
       </c>
       <c r="J234" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M234" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N234" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O234" s="2">
         <v>44980.49791666667</v>
@@ -11793,10 +11823,10 @@
         <v>391</v>
       </c>
       <c r="M235" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N235" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O235" s="2">
         <v>44980.49791666667</v>
@@ -11819,10 +11849,10 @@
         <v>391</v>
       </c>
       <c r="M236" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N236" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O236" s="2">
         <v>44980.49791666667</v>
@@ -11845,10 +11875,10 @@
         <v>391</v>
       </c>
       <c r="M237" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N237" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O237" s="2">
         <v>44980.49791666667</v>
@@ -11871,10 +11901,10 @@
         <v>391</v>
       </c>
       <c r="M238" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N238" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O238" s="2">
         <v>44980.49791666667</v>
@@ -11897,10 +11927,10 @@
         <v>391</v>
       </c>
       <c r="M239" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N239" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O239" s="2">
         <v>44980.49791666667</v>
@@ -11929,16 +11959,16 @@
         <v>609</v>
       </c>
       <c r="H240" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I240" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M240" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N240" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O240" s="2">
         <v>44980.49791666667</v>
@@ -11967,16 +11997,16 @@
         <v>624</v>
       </c>
       <c r="H241" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I241" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M241" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N241" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O241" s="2">
         <v>44980.49791666667</v>
@@ -12005,16 +12035,16 @@
         <v>625</v>
       </c>
       <c r="H242" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I242" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M242" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N242" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O242" s="2">
         <v>44980.49791666667</v>
@@ -12043,16 +12073,16 @@
         <v>626</v>
       </c>
       <c r="H243" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I243" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M243" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N243" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O243" s="2">
         <v>44980.49791666667</v>
@@ -12081,16 +12111,16 @@
         <v>627</v>
       </c>
       <c r="H244" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I244" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M244" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N244" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O244" s="2">
         <v>44980.49791666667</v>
@@ -12119,16 +12149,16 @@
         <v>628</v>
       </c>
       <c r="H245" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I245" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M245" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N245" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O245" s="2">
         <v>44980.49791666667</v>
@@ -12157,16 +12187,16 @@
         <v>629</v>
       </c>
       <c r="H246" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I246" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M246" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N246" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O246" s="2">
         <v>44980.49791666667</v>
@@ -12195,16 +12225,16 @@
         <v>630</v>
       </c>
       <c r="H247" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I247" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M247" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N247" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O247" s="2">
         <v>44980.49791666667</v>
@@ -12227,16 +12257,16 @@
         <v>382</v>
       </c>
       <c r="H248" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="M248" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N248" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O248" s="2">
         <v>44981.35486111111</v>
@@ -12259,16 +12289,16 @@
         <v>383</v>
       </c>
       <c r="H249" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="M249" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N249" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O249" s="2">
         <v>44981.35486111111</v>
@@ -12291,16 +12321,16 @@
         <v>384</v>
       </c>
       <c r="H250" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="M250" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N250" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O250" s="2">
         <v>44981.35486111111</v>
@@ -12323,16 +12353,16 @@
         <v>385</v>
       </c>
       <c r="H251" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="M251" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N251" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O251" s="2">
         <v>44981.35486111111</v>
@@ -12361,22 +12391,22 @@
         <v>580</v>
       </c>
       <c r="H252" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I252" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K252" t="s">
         <v>386</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="M252" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N252" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O252" s="2">
         <v>44981.54791666667</v>
@@ -12405,22 +12435,22 @@
         <v>580</v>
       </c>
       <c r="H253" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I253" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K253" t="s">
         <v>387</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="M253" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N253" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O253" s="2">
         <v>44981.54861111111</v>
@@ -12449,22 +12479,22 @@
         <v>580</v>
       </c>
       <c r="H254" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I254" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K254" t="s">
         <v>388</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="M254" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N254" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O254" s="2">
         <v>44981.55069444444</v>
@@ -12493,22 +12523,22 @@
         <v>580</v>
       </c>
       <c r="H255" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I255" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K255" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="M255" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N255" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O255" s="2">
         <v>44981.59236111111</v>
@@ -12528,10 +12558,10 @@
         <v>304</v>
       </c>
       <c r="M256" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N256" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="O256" s="2">
         <v>44981.63472222222</v>

--- a/w_after replace  Employee_Process.xlsx
+++ b/w_after replace  Employee_Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="995">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Privacy_Impact_Assessment_-_Pia</t>
   </si>
   <si>
-    <t>Maintenance_Of_Register_Ofing_Activities_Ropa</t>
+    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa</t>
   </si>
   <si>
     <t>Complete_Purchasing_Process</t>
@@ -163,13 +163,13 @@
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination_If_Applicable</t>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade_If_Applicable</t>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction</t>
@@ -181,7 +181,7 @@
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning_Owned_By_NIO_Power</t>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service</t>
@@ -283,7 +283,7 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars_In_Progress</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life</t>
@@ -316,7 +316,7 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_ChargersIssues</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map</t>
@@ -328,10 +328,10 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_StationIssues</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_ChargingIssues</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
@@ -352,13 +352,13 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_AppIn_Progress</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_SCR_Template_NameIn_Progress</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert_Need_Breakdown_and_More_Clarification</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_SCR_Template_Name</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert</t>
   </si>
   <si>
     <t>COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU</t>
@@ -430,10 +430,10 @@
     <t>EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication</t>
   </si>
   <si>
-    <t>EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communicationin_progress</t>
-  </si>
-  <si>
-    <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_Summer_in_progress</t>
+    <t>EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication</t>
+  </si>
+  <si>
+    <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_Summer</t>
   </si>
   <si>
     <t>EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management</t>
@@ -523,7 +523,7 @@
     <t>MSRP_Pricing_SOP</t>
   </si>
   <si>
-    <t>User_Behavior_Tracking_System_UBTS</t>
+    <t>User_Behavior_Tracking_System_-_UBTS</t>
   </si>
   <si>
     <t>Market_Intelligence_Europe</t>
@@ -911,9 +911,6 @@
   </si>
   <si>
     <t>COE-PD-Product_Experience</t>
-  </si>
-  <si>
-    <t>COE-PD-Product_Marketing,COE-PD-Product_Marketing</t>
   </si>
   <si>
     <t>EU_Service_Network</t>
@@ -2524,22 +2521,22 @@
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable)</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO - Recycling Batteries And Cars (In Progress)</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life</t>
@@ -2548,7 +2545,7 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting</t>
@@ -2900,6 +2897,9 @@
   </si>
   <si>
     <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402899-10891</t>
+  </si>
+  <si>
+    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710111-10397</t>
   </si>
   <si>
     <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022401429-4275</t>
@@ -3509,22 +3509,22 @@
         <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M2" t="s">
         <v>980</v>
@@ -3550,19 +3550,19 @@
         <v>278</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M3" t="s">
         <v>981</v>
@@ -3588,22 +3588,22 @@
         <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M4" t="s">
         <v>982</v>
@@ -3629,22 +3629,22 @@
         <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="M5" t="s">
         <v>983</v>
@@ -3670,22 +3670,22 @@
         <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M6" t="s">
         <v>983</v>
@@ -3711,22 +3711,22 @@
         <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M7" t="s">
         <v>983</v>
@@ -3752,19 +3752,19 @@
         <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M8" t="s">
         <v>984</v>
@@ -3790,19 +3790,19 @@
         <v>280</v>
       </c>
       <c r="E9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -3814,7 +3814,7 @@
         <v>983</v>
       </c>
       <c r="O9" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3831,25 +3831,25 @@
         <v>281</v>
       </c>
       <c r="E10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="M10" t="s">
         <v>985</v>
@@ -3875,19 +3875,19 @@
         <v>282</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M11" t="s">
         <v>983</v>
@@ -3913,25 +3913,25 @@
         <v>283</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M12" t="s">
         <v>983</v>
@@ -3957,22 +3957,22 @@
         <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I13" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M13" t="s">
         <v>983</v>
@@ -3998,22 +3998,22 @@
         <v>283</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M14" t="s">
         <v>983</v>
@@ -4039,22 +4039,22 @@
         <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K15" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M15" t="s">
         <v>983</v>
@@ -4080,25 +4080,25 @@
         <v>283</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I16" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K16" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M16" t="s">
         <v>983</v>
@@ -4124,19 +4124,19 @@
         <v>283</v>
       </c>
       <c r="E17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M17" t="s">
         <v>983</v>
@@ -4162,19 +4162,19 @@
         <v>283</v>
       </c>
       <c r="E18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M18" t="s">
         <v>983</v>
@@ -4200,19 +4200,19 @@
         <v>283</v>
       </c>
       <c r="E19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M19" t="s">
         <v>983</v>
@@ -4238,22 +4238,22 @@
         <v>283</v>
       </c>
       <c r="E20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I20" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M20" t="s">
         <v>983</v>
@@ -4279,19 +4279,19 @@
         <v>283</v>
       </c>
       <c r="E21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M21" t="s">
         <v>983</v>
@@ -4317,28 +4317,28 @@
         <v>284</v>
       </c>
       <c r="E22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L22" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M22" t="s">
         <v>983</v>
@@ -4364,19 +4364,19 @@
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K23" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M23" t="s">
         <v>983</v>
@@ -4402,25 +4402,25 @@
         <v>284</v>
       </c>
       <c r="E24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I24" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K24" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L24" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M24" t="s">
         <v>986</v>
@@ -4446,31 +4446,34 @@
         <v>284</v>
       </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I25" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K25" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L25" t="s">
+        <v>936</v>
       </c>
       <c r="M25" t="s">
         <v>986</v>
       </c>
       <c r="N25" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O25" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.74791666667</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -4487,34 +4490,37 @@
         <v>284</v>
       </c>
       <c r="E26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J26" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K26" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L26" t="s">
+        <v>936</v>
       </c>
       <c r="M26" t="s">
         <v>986</v>
       </c>
       <c r="N26" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O26" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -4531,34 +4537,37 @@
         <v>284</v>
       </c>
       <c r="E27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I27" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K27" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L27" t="s">
+        <v>936</v>
       </c>
       <c r="M27" t="s">
         <v>986</v>
       </c>
       <c r="N27" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O27" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75208333333</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -4575,34 +4584,37 @@
         <v>284</v>
       </c>
       <c r="E28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J28" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K28" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L28" t="s">
+        <v>936</v>
       </c>
       <c r="M28" t="s">
         <v>986</v>
       </c>
       <c r="N28" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O28" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75347222222</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -4619,31 +4631,34 @@
         <v>284</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K29" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L29" t="s">
+        <v>936</v>
       </c>
       <c r="M29" t="s">
         <v>986</v>
       </c>
       <c r="N29" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O29" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75486111111</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -4660,31 +4675,34 @@
         <v>284</v>
       </c>
       <c r="E30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I30" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K30" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L30" t="s">
+        <v>936</v>
       </c>
       <c r="M30" t="s">
         <v>986</v>
       </c>
       <c r="N30" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O30" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75625</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -4701,31 +4719,34 @@
         <v>284</v>
       </c>
       <c r="E31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G31" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I31" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K31" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L31" t="s">
+        <v>936</v>
       </c>
       <c r="M31" t="s">
         <v>986</v>
       </c>
       <c r="N31" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O31" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75763888889</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -4742,31 +4763,34 @@
         <v>284</v>
       </c>
       <c r="E32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I32" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K32" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L32" t="s">
+        <v>936</v>
       </c>
       <c r="M32" t="s">
         <v>986</v>
       </c>
       <c r="N32" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O32" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75902777778</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -4783,31 +4807,34 @@
         <v>284</v>
       </c>
       <c r="E33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I33" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K33" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L33" t="s">
+        <v>936</v>
       </c>
       <c r="M33" t="s">
         <v>986</v>
       </c>
       <c r="N33" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O33" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76041666666</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -4824,34 +4851,37 @@
         <v>284</v>
       </c>
       <c r="E34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K34" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L34" t="s">
+        <v>936</v>
       </c>
       <c r="M34" t="s">
         <v>986</v>
       </c>
       <c r="N34" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O34" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76111111111</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -4868,31 +4898,34 @@
         <v>284</v>
       </c>
       <c r="E35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K35" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L35" t="s">
+        <v>936</v>
       </c>
       <c r="M35" t="s">
         <v>986</v>
       </c>
       <c r="N35" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O35" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.7625</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -4909,22 +4942,22 @@
         <v>284</v>
       </c>
       <c r="E36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M36" t="s">
         <v>986</v>
@@ -4933,7 +4966,7 @@
         <v>983</v>
       </c>
       <c r="O36" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -4950,31 +4983,34 @@
         <v>284</v>
       </c>
       <c r="E37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K37" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L37" t="s">
+        <v>936</v>
       </c>
       <c r="M37" t="s">
         <v>986</v>
       </c>
       <c r="N37" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O37" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76388888889</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -4991,22 +5027,22 @@
         <v>284</v>
       </c>
       <c r="E38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K38" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M38" t="s">
         <v>986</v>
@@ -5015,7 +5051,7 @@
         <v>983</v>
       </c>
       <c r="O38" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -5032,31 +5068,34 @@
         <v>284</v>
       </c>
       <c r="E39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H39" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K39" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L39" t="s">
+        <v>936</v>
       </c>
       <c r="M39" t="s">
         <v>986</v>
       </c>
       <c r="N39" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O39" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76527777778</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -5073,34 +5112,37 @@
         <v>284</v>
       </c>
       <c r="E40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J40" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K40" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L40" t="s">
+        <v>936</v>
       </c>
       <c r="M40" t="s">
         <v>986</v>
       </c>
       <c r="N40" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O40" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76597222222</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -5117,22 +5159,25 @@
         <v>284</v>
       </c>
       <c r="E41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G41" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H41" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I41" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K41" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>938</v>
       </c>
       <c r="M41" t="s">
         <v>986</v>
@@ -5141,7 +5186,7 @@
         <v>983</v>
       </c>
       <c r="O41" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.78125</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -5158,22 +5203,22 @@
         <v>284</v>
       </c>
       <c r="E42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K42" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M42" t="s">
         <v>986</v>
@@ -5182,7 +5227,7 @@
         <v>983</v>
       </c>
       <c r="O42" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -5199,31 +5244,34 @@
         <v>284</v>
       </c>
       <c r="E43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I43" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K43" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L43" t="s">
+        <v>936</v>
       </c>
       <c r="M43" t="s">
         <v>986</v>
       </c>
       <c r="N43" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O43" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76805555556</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -5240,31 +5288,34 @@
         <v>284</v>
       </c>
       <c r="E44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H44" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I44" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K44" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L44" t="s">
+        <v>936</v>
       </c>
       <c r="M44" t="s">
         <v>986</v>
       </c>
       <c r="N44" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O44" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76875</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -5281,22 +5332,22 @@
         <v>284</v>
       </c>
       <c r="E45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K45" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M45" t="s">
         <v>986</v>
@@ -5322,22 +5373,22 @@
         <v>284</v>
       </c>
       <c r="E46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F46" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H46" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I46" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M46" t="s">
         <v>986</v>
@@ -5363,16 +5414,16 @@
         <v>285</v>
       </c>
       <c r="E47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H47" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I47" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K47" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>939</v>
@@ -5401,16 +5452,16 @@
         <v>285</v>
       </c>
       <c r="F48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G48" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I48" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K48" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M48" t="s">
         <v>987</v>
@@ -5436,22 +5487,22 @@
         <v>285</v>
       </c>
       <c r="E49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G49" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H49" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K49" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>940</v>
@@ -5480,22 +5531,22 @@
         <v>285</v>
       </c>
       <c r="E50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H50" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I50" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K50" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>941</v>
@@ -5524,22 +5575,22 @@
         <v>285</v>
       </c>
       <c r="E51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G51" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I51" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K51" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>942</v>
@@ -5660,22 +5711,22 @@
         <v>286</v>
       </c>
       <c r="E56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G56" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H56" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I56" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K56" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>943</v>
@@ -5704,22 +5755,22 @@
         <v>286</v>
       </c>
       <c r="E57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F57" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G57" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H57" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I57" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K57" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>944</v>
@@ -6001,22 +6052,22 @@
         <v>287</v>
       </c>
       <c r="F69" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G69" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H69" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I69" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K69" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M69" t="s">
         <v>987</v>
@@ -6042,19 +6093,19 @@
         <v>287</v>
       </c>
       <c r="F70" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G70" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I70" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J70" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K70" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M70" t="s">
         <v>987</v>
@@ -6080,22 +6131,22 @@
         <v>287</v>
       </c>
       <c r="E71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F71" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G71" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H71" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I71" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K71" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M71" t="s">
         <v>987</v>
@@ -6121,19 +6172,19 @@
         <v>287</v>
       </c>
       <c r="E72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F72" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G72" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I72" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K72" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M72" t="s">
         <v>987</v>
@@ -6159,22 +6210,22 @@
         <v>287</v>
       </c>
       <c r="E73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F73" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G73" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H73" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I73" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K73" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M73" t="s">
         <v>987</v>
@@ -6200,22 +6251,22 @@
         <v>287</v>
       </c>
       <c r="F74" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G74" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H74" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I74" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J74" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K74" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M74" t="s">
         <v>987</v>
@@ -6241,22 +6292,22 @@
         <v>287</v>
       </c>
       <c r="E75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F75" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G75" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H75" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I75" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K75" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M75" t="s">
         <v>987</v>
@@ -6282,25 +6333,25 @@
         <v>287</v>
       </c>
       <c r="F76" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G76" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I76" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K76" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M76" t="s">
         <v>987</v>
       </c>
       <c r="N76" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="O76" s="2">
-        <v>44984.69444444445</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -6317,19 +6368,19 @@
         <v>287</v>
       </c>
       <c r="F77" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G77" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I77" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J77" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K77" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M77" t="s">
         <v>987</v>
@@ -6355,22 +6406,22 @@
         <v>287</v>
       </c>
       <c r="E78" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F78" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G78" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H78" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I78" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K78" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M78" t="s">
         <v>987</v>
@@ -6396,22 +6447,22 @@
         <v>287</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F79" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G79" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H79" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I79" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M79" t="s">
         <v>987</v>
@@ -6437,22 +6488,22 @@
         <v>287</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F80" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G80" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H80" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I80" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K80" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>945</v>
@@ -6481,16 +6532,16 @@
         <v>287</v>
       </c>
       <c r="F81" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G81" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J81" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K81" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M81" t="s">
         <v>987</v>
@@ -6516,22 +6567,22 @@
         <v>287</v>
       </c>
       <c r="E82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F82" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G82" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H82" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I82" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K82" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M82" t="s">
         <v>987</v>
@@ -6557,22 +6608,22 @@
         <v>287</v>
       </c>
       <c r="E83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F83" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H83" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I83" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K83" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M83" t="s">
         <v>987</v>
@@ -6598,22 +6649,22 @@
         <v>287</v>
       </c>
       <c r="E84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F84" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H84" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I84" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K84" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M84" t="s">
         <v>987</v>
@@ -6639,16 +6690,16 @@
         <v>287</v>
       </c>
       <c r="F85" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G85" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J85" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K85" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M85" t="s">
         <v>987</v>
@@ -6674,22 +6725,22 @@
         <v>287</v>
       </c>
       <c r="E86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F86" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G86" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H86" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I86" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K86" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M86" t="s">
         <v>987</v>
@@ -6715,22 +6766,22 @@
         <v>287</v>
       </c>
       <c r="E87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G87" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H87" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I87" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K87" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M87" t="s">
         <v>987</v>
@@ -6739,7 +6790,7 @@
         <v>983</v>
       </c>
       <c r="O87" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -6756,22 +6807,22 @@
         <v>287</v>
       </c>
       <c r="E88" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H88" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I88" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K88" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M88" t="s">
         <v>987</v>
@@ -6797,22 +6848,22 @@
         <v>287</v>
       </c>
       <c r="E89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G89" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H89" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I89" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K89" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="M89" t="s">
         <v>987</v>
@@ -6838,22 +6889,22 @@
         <v>287</v>
       </c>
       <c r="E90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F90" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G90" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H90" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I90" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K90" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M90" t="s">
         <v>987</v>
@@ -6879,22 +6930,22 @@
         <v>287</v>
       </c>
       <c r="E91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F91" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G91" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H91" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I91" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K91" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M91" t="s">
         <v>987</v>
@@ -6903,7 +6954,7 @@
         <v>983</v>
       </c>
       <c r="O91" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -6920,22 +6971,22 @@
         <v>287</v>
       </c>
       <c r="E92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F92" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H92" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I92" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K92" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M92" t="s">
         <v>987</v>
@@ -6944,7 +6995,7 @@
         <v>983</v>
       </c>
       <c r="O92" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -6961,22 +7012,22 @@
         <v>287</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G93" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H93" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I93" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K93" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M93" t="s">
         <v>987</v>
@@ -7002,16 +7053,16 @@
         <v>287</v>
       </c>
       <c r="F94" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G94" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J94" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K94" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M94" t="s">
         <v>987</v>
@@ -7037,22 +7088,22 @@
         <v>287</v>
       </c>
       <c r="E95" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F95" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G95" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H95" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I95" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K95" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M95" t="s">
         <v>987</v>
@@ -7078,22 +7129,22 @@
         <v>287</v>
       </c>
       <c r="E96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F96" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G96" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H96" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I96" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K96" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M96" t="s">
         <v>987</v>
@@ -7119,22 +7170,22 @@
         <v>287</v>
       </c>
       <c r="E97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F97" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G97" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H97" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I97" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K97" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M97" t="s">
         <v>987</v>
@@ -7160,19 +7211,19 @@
         <v>287</v>
       </c>
       <c r="E98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F98" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G98" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H98" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K98" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M98" t="s">
         <v>987</v>
@@ -7198,19 +7249,19 @@
         <v>287</v>
       </c>
       <c r="F99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G99" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H99" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I99" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K99" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M99" t="s">
         <v>987</v>
@@ -7219,7 +7270,7 @@
         <v>983</v>
       </c>
       <c r="O99" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -7236,19 +7287,19 @@
         <v>287</v>
       </c>
       <c r="F100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K100" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M100" t="s">
         <v>987</v>
       </c>
       <c r="N100" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="O100" s="2">
-        <v>44984.69722222222</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -7265,22 +7316,22 @@
         <v>287</v>
       </c>
       <c r="E101" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F101" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G101" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H101" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I101" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K101" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M101" t="s">
         <v>987</v>
@@ -7289,7 +7340,7 @@
         <v>983</v>
       </c>
       <c r="O101" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -7306,22 +7357,22 @@
         <v>288</v>
       </c>
       <c r="E102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G102" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I102" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K102" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M102" t="s">
         <v>987</v>
@@ -7347,22 +7398,22 @@
         <v>289</v>
       </c>
       <c r="E103" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F103" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G103" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I103" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J103" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K103" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M103" t="s">
         <v>987</v>
@@ -7388,16 +7439,16 @@
         <v>289</v>
       </c>
       <c r="F104" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G104" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I104" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K104" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M104" t="s">
         <v>987</v>
@@ -7423,16 +7474,16 @@
         <v>289</v>
       </c>
       <c r="F105" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G105" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I105" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K105" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M105" t="s">
         <v>987</v>
@@ -7458,16 +7509,16 @@
         <v>289</v>
       </c>
       <c r="F106" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G106" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I106" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K106" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M106" t="s">
         <v>987</v>
@@ -7493,25 +7544,25 @@
         <v>289</v>
       </c>
       <c r="E107" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F107" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G107" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H107" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I107" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J107" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K107" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>946</v>
@@ -7540,22 +7591,22 @@
         <v>289</v>
       </c>
       <c r="E108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F108" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G108" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H108" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I108" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K108" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M108" t="s">
         <v>987</v>
@@ -7581,22 +7632,22 @@
         <v>289</v>
       </c>
       <c r="E109" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F109" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G109" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H109" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I109" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K109" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M109" t="s">
         <v>987</v>
@@ -7622,22 +7673,22 @@
         <v>289</v>
       </c>
       <c r="E110" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F110" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G110" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H110" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I110" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K110" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M110" t="s">
         <v>987</v>
@@ -7663,22 +7714,22 @@
         <v>289</v>
       </c>
       <c r="E111" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F111" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G111" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I111" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K111" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M111" t="s">
         <v>987</v>
@@ -7704,22 +7755,22 @@
         <v>289</v>
       </c>
       <c r="E112" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F112" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G112" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H112" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I112" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K112" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M112" t="s">
         <v>987</v>
@@ -7745,25 +7796,25 @@
         <v>290</v>
       </c>
       <c r="E113" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F113" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G113" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H113" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I113" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J113" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K113" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>947</v>
@@ -7792,22 +7843,22 @@
         <v>290</v>
       </c>
       <c r="E114" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F114" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G114" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H114" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I114" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K114" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M114" t="s">
         <v>987</v>
@@ -7833,22 +7884,22 @@
         <v>290</v>
       </c>
       <c r="E115" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F115" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H115" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I115" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K115" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M115" t="s">
         <v>987</v>
@@ -7874,22 +7925,22 @@
         <v>290</v>
       </c>
       <c r="E116" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F116" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G116" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H116" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I116" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K116" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M116" t="s">
         <v>987</v>
@@ -7915,22 +7966,22 @@
         <v>290</v>
       </c>
       <c r="E117" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F117" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G117" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H117" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I117" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K117" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M117" t="s">
         <v>987</v>
@@ -7956,22 +8007,22 @@
         <v>290</v>
       </c>
       <c r="E118" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F118" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G118" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I118" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K118" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M118" t="s">
         <v>987</v>
@@ -7997,22 +8048,22 @@
         <v>290</v>
       </c>
       <c r="E119" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F119" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G119" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H119" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I119" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M119" t="s">
         <v>987</v>
@@ -8038,25 +8089,25 @@
         <v>291</v>
       </c>
       <c r="E120" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F120" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G120" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H120" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I120" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J120" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K120" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>948</v>
@@ -8085,22 +8136,22 @@
         <v>291</v>
       </c>
       <c r="E121" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F121" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G121" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H121" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I121" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K121" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M121" t="s">
         <v>987</v>
@@ -8126,22 +8177,22 @@
         <v>291</v>
       </c>
       <c r="E122" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F122" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H122" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I122" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K122" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M122" t="s">
         <v>987</v>
@@ -8167,22 +8218,22 @@
         <v>292</v>
       </c>
       <c r="E123" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F123" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G123" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I123" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K123" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M123" t="s">
         <v>987</v>
@@ -8208,22 +8259,22 @@
         <v>292</v>
       </c>
       <c r="E124" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F124" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G124" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H124" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I124" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K124" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M124" t="s">
         <v>987</v>
@@ -8249,7 +8300,7 @@
         <v>292</v>
       </c>
       <c r="K125" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M125" t="s">
         <v>987</v>
@@ -8258,7 +8309,7 @@
         <v>983</v>
       </c>
       <c r="O125" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.43055555555</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -8275,16 +8326,16 @@
         <v>292</v>
       </c>
       <c r="K126" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M126" t="s">
         <v>987</v>
       </c>
       <c r="N126" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="O126" s="2">
-        <v>44984.57361111111</v>
+        <v>44985.43055555555</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -8301,22 +8352,22 @@
         <v>280</v>
       </c>
       <c r="E127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F127" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G127" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H127" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I127" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K127" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M127" t="s">
         <v>987</v>
@@ -8342,25 +8393,25 @@
         <v>280</v>
       </c>
       <c r="E128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F128" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G128" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H128" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I128" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J128" t="s">
         <v>140</v>
       </c>
       <c r="K128" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M128" t="s">
         <v>987</v>
@@ -8386,22 +8437,22 @@
         <v>293</v>
       </c>
       <c r="E129" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F129" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H129" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I129" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J129" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K129" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>949</v>
@@ -8430,22 +8481,22 @@
         <v>293</v>
       </c>
       <c r="E130" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F130" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H130" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I130" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J130" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K130" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>950</v>
@@ -8474,22 +8525,22 @@
         <v>293</v>
       </c>
       <c r="E131" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F131" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H131" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I131" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J131" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K131" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>951</v>
@@ -8518,22 +8569,22 @@
         <v>293</v>
       </c>
       <c r="E132" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F132" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H132" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I132" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J132" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K132" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L132" s="3" t="s">
         <v>952</v>
@@ -8562,22 +8613,22 @@
         <v>293</v>
       </c>
       <c r="E133" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F133" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G133" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H133" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I133" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K133" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M133" t="s">
         <v>987</v>
@@ -8603,22 +8654,22 @@
         <v>293</v>
       </c>
       <c r="E134" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F134" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G134" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H134" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I134" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K134" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M134" t="s">
         <v>987</v>
@@ -8644,22 +8695,22 @@
         <v>293</v>
       </c>
       <c r="E135" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F135" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G135" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I135" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K135" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M135" t="s">
         <v>987</v>
@@ -8685,22 +8736,22 @@
         <v>293</v>
       </c>
       <c r="E136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F136" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G136" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H136" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I136" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K136" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M136" t="s">
         <v>987</v>
@@ -8726,22 +8777,22 @@
         <v>293</v>
       </c>
       <c r="E137" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F137" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G137" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H137" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I137" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K137" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M137" t="s">
         <v>987</v>
@@ -8767,22 +8818,22 @@
         <v>293</v>
       </c>
       <c r="E138" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F138" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G138" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H138" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I138" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K138" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M138" t="s">
         <v>987</v>
@@ -8808,22 +8859,22 @@
         <v>293</v>
       </c>
       <c r="E139" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F139" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G139" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H139" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I139" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K139" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M139" t="s">
         <v>987</v>
@@ -8849,22 +8900,22 @@
         <v>293</v>
       </c>
       <c r="E140" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F140" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G140" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H140" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I140" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K140" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M140" t="s">
         <v>987</v>
@@ -8890,22 +8941,22 @@
         <v>293</v>
       </c>
       <c r="E141" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F141" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G141" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H141" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I141" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K141" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M141" t="s">
         <v>987</v>
@@ -8931,25 +8982,25 @@
         <v>294</v>
       </c>
       <c r="E142" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F142" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G142" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H142" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I142" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J142" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K142" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M142" t="s">
         <v>987</v>
@@ -8975,25 +9026,25 @@
         <v>294</v>
       </c>
       <c r="E143" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F143" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G143" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H143" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I143" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J143" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K143" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>953</v>
@@ -9022,19 +9073,19 @@
         <v>294</v>
       </c>
       <c r="E144" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G144" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H144" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I144" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K144" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M144" t="s">
         <v>987</v>
@@ -9060,25 +9111,25 @@
         <v>294</v>
       </c>
       <c r="E145" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F145" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G145" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H145" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I145" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J145" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K145" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M145" t="s">
         <v>987</v>
@@ -9104,16 +9155,16 @@
         <v>294</v>
       </c>
       <c r="G146" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H146" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I146" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K146" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M146" t="s">
         <v>987</v>
@@ -9139,16 +9190,16 @@
         <v>294</v>
       </c>
       <c r="G147" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H147" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I147" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K147" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M147" t="s">
         <v>987</v>
@@ -9174,16 +9225,16 @@
         <v>294</v>
       </c>
       <c r="G148" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H148" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I148" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K148" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M148" t="s">
         <v>987</v>
@@ -9209,19 +9260,19 @@
         <v>294</v>
       </c>
       <c r="E149" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G149" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H149" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I149" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K149" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M149" t="s">
         <v>987</v>
@@ -9247,22 +9298,22 @@
         <v>294</v>
       </c>
       <c r="E150" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F150" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G150" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H150" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I150" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K150" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M150" t="s">
         <v>987</v>
@@ -9288,19 +9339,19 @@
         <v>294</v>
       </c>
       <c r="E151" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H151" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I151" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K151" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M151" t="s">
         <v>987</v>
@@ -9326,19 +9377,19 @@
         <v>294</v>
       </c>
       <c r="E152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F152" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G152" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H152" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I152" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M152" t="s">
         <v>988</v>
@@ -9364,22 +9415,22 @@
         <v>295</v>
       </c>
       <c r="E153" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F153" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G153" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H153" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I153" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K153" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>954</v>
@@ -9408,22 +9459,22 @@
         <v>296</v>
       </c>
       <c r="E154" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F154" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G154" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H154" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I154" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K154" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M154" t="s">
         <v>989</v>
@@ -9449,19 +9500,19 @@
         <v>297</v>
       </c>
       <c r="E155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F155" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G155" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H155" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I155" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M155" t="s">
         <v>990</v>
@@ -9487,19 +9538,19 @@
         <v>297</v>
       </c>
       <c r="E156" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F156" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G156" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H156" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I156" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M156" t="s">
         <v>991</v>
@@ -9508,7 +9559,7 @@
         <v>983</v>
       </c>
       <c r="O156" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="157" spans="1:15">
@@ -9525,19 +9576,19 @@
         <v>297</v>
       </c>
       <c r="E157" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F157" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G157" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H157" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I157" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M157" t="s">
         <v>990</v>
@@ -9563,19 +9614,19 @@
         <v>298</v>
       </c>
       <c r="E158" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F158" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G158" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H158" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I158" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M158" t="s">
         <v>992</v>
@@ -9601,19 +9652,19 @@
         <v>298</v>
       </c>
       <c r="E159" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F159" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G159" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H159" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I159" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M159" t="s">
         <v>992</v>
@@ -9636,22 +9687,22 @@
         <v>277</v>
       </c>
       <c r="D160" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E160" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F160" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G160" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H160" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I160" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M160" t="s">
         <v>993</v>
@@ -9674,22 +9725,22 @@
         <v>277</v>
       </c>
       <c r="D161" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E161" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F161" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G161" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H161" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I161" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M161" t="s">
         <v>993</v>
@@ -9712,22 +9763,22 @@
         <v>277</v>
       </c>
       <c r="D162" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E162" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F162" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G162" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H162" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I162" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M162" t="s">
         <v>993</v>
@@ -9750,22 +9801,22 @@
         <v>277</v>
       </c>
       <c r="D163" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E163" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F163" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G163" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H163" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I163" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M163" t="s">
         <v>993</v>
@@ -9788,22 +9839,22 @@
         <v>277</v>
       </c>
       <c r="D164" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E164" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F164" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G164" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H164" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I164" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M164" t="s">
         <v>993</v>
@@ -9826,22 +9877,22 @@
         <v>277</v>
       </c>
       <c r="D165" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E165" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F165" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G165" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H165" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I165" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M165" t="s">
         <v>993</v>
@@ -9864,22 +9915,22 @@
         <v>277</v>
       </c>
       <c r="D166" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E166" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F166" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G166" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H166" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I166" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M166" t="s">
         <v>993</v>
@@ -9902,22 +9953,22 @@
         <v>277</v>
       </c>
       <c r="D167" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E167" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F167" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G167" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H167" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I167" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M167" t="s">
         <v>993</v>
@@ -9943,13 +9994,13 @@
         <v>280</v>
       </c>
       <c r="E168" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H168" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K168" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M168" t="s">
         <v>983</v>
@@ -9975,13 +10026,13 @@
         <v>280</v>
       </c>
       <c r="E169" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H169" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K169" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M169" t="s">
         <v>983</v>
@@ -10007,13 +10058,13 @@
         <v>280</v>
       </c>
       <c r="E170" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H170" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K170" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M170" t="s">
         <v>983</v>
@@ -10039,10 +10090,10 @@
         <v>280</v>
       </c>
       <c r="E171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M171" t="s">
         <v>983</v>
@@ -10068,10 +10119,10 @@
         <v>280</v>
       </c>
       <c r="E172" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K172" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M172" t="s">
         <v>983</v>
@@ -10097,10 +10148,10 @@
         <v>280</v>
       </c>
       <c r="E173" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K173" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M173" t="s">
         <v>983</v>
@@ -10126,10 +10177,10 @@
         <v>280</v>
       </c>
       <c r="E174" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K174" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M174" t="s">
         <v>983</v>
@@ -10155,10 +10206,10 @@
         <v>280</v>
       </c>
       <c r="E175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M175" t="s">
         <v>983</v>
@@ -10184,10 +10235,10 @@
         <v>280</v>
       </c>
       <c r="E176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M176" t="s">
         <v>983</v>
@@ -10213,10 +10264,10 @@
         <v>280</v>
       </c>
       <c r="E177" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K177" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M177" t="s">
         <v>983</v>
@@ -10242,10 +10293,10 @@
         <v>280</v>
       </c>
       <c r="E178" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K178" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M178" t="s">
         <v>983</v>
@@ -10268,25 +10319,25 @@
         <v>277</v>
       </c>
       <c r="D179" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E179" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F179" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G179" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H179" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I179" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K179" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>955</v>
@@ -10312,25 +10363,25 @@
         <v>277</v>
       </c>
       <c r="D180" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E180" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F180" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G180" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H180" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I180" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K180" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>956</v>
@@ -10356,25 +10407,25 @@
         <v>277</v>
       </c>
       <c r="D181" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E181" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F181" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G181" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H181" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I181" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K181" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>957</v>
@@ -10400,25 +10451,25 @@
         <v>277</v>
       </c>
       <c r="D182" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E182" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F182" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G182" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H182" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I182" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K182" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L182" s="3" t="s">
         <v>958</v>
@@ -10444,22 +10495,22 @@
         <v>277</v>
       </c>
       <c r="D183" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E183" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F183" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G183" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H183" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I183" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J183" t="s">
         <v>197</v>
@@ -10485,25 +10536,25 @@
         <v>277</v>
       </c>
       <c r="D184" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E184" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G184" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H184" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I184" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K184" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="M184" t="s">
         <v>986</v>
@@ -10526,19 +10577,19 @@
         <v>277</v>
       </c>
       <c r="D185" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E185" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F185" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G185" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J185" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="M185" t="s">
         <v>986</v>
@@ -10561,25 +10612,25 @@
         <v>277</v>
       </c>
       <c r="D186" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E186" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F186" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G186" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H186" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I186" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K186" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>959</v>
@@ -10605,25 +10656,25 @@
         <v>277</v>
       </c>
       <c r="D187" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E187" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F187" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G187" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H187" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I187" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K187" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>960</v>
@@ -10649,16 +10700,16 @@
         <v>277</v>
       </c>
       <c r="D188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E188" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F188" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G188" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M188" t="s">
         <v>986</v>
@@ -10681,25 +10732,25 @@
         <v>277</v>
       </c>
       <c r="D189" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E189" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F189" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G189" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H189" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I189" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K189" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L189" t="s">
         <v>961</v>
@@ -10725,10 +10776,10 @@
         <v>277</v>
       </c>
       <c r="D190" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F190" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M190" t="s">
         <v>986</v>
@@ -10751,19 +10802,19 @@
         <v>277</v>
       </c>
       <c r="D191" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E191" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F191" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G191" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J191" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M191" t="s">
         <v>986</v>
@@ -10786,25 +10837,25 @@
         <v>277</v>
       </c>
       <c r="D192" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E192" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F192" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G192" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H192" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I192" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K192" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>962</v>
@@ -10830,25 +10881,25 @@
         <v>277</v>
       </c>
       <c r="D193" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E193" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F193" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G193" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H193" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I193" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K193" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L193" t="s">
         <v>961</v>
@@ -10874,25 +10925,25 @@
         <v>277</v>
       </c>
       <c r="D194" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E194" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F194" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G194" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H194" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I194" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K194" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>963</v>
@@ -10918,25 +10969,25 @@
         <v>277</v>
       </c>
       <c r="D195" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E195" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F195" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G195" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H195" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I195" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K195" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>964</v>
@@ -10962,25 +11013,25 @@
         <v>277</v>
       </c>
       <c r="D196" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E196" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F196" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G196" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H196" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I196" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J196" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="M196" t="s">
         <v>986</v>
@@ -11003,25 +11054,25 @@
         <v>277</v>
       </c>
       <c r="D197" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F197" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G197" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H197" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I197" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K197" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L197" t="s">
         <v>965</v>
@@ -11047,16 +11098,16 @@
         <v>277</v>
       </c>
       <c r="D198" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F198" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H198" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I198" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M198" t="s">
         <v>986</v>
@@ -11079,25 +11130,25 @@
         <v>277</v>
       </c>
       <c r="D199" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E199" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F199" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G199" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H199" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I199" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J199" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M199" t="s">
         <v>986</v>
@@ -11120,25 +11171,25 @@
         <v>277</v>
       </c>
       <c r="D200" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E200" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F200" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G200" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H200" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I200" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K200" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L200" t="s">
         <v>965</v>
@@ -11164,25 +11215,25 @@
         <v>277</v>
       </c>
       <c r="D201" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E201" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F201" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G201" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H201" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I201" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K201" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L201" t="s">
         <v>965</v>
@@ -11208,25 +11259,25 @@
         <v>277</v>
       </c>
       <c r="D202" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E202" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F202" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G202" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H202" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I202" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K202" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L202" t="s">
         <v>965</v>
@@ -11252,25 +11303,25 @@
         <v>277</v>
       </c>
       <c r="D203" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E203" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F203" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G203" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H203" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I203" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K203" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L203" t="s">
         <v>965</v>
@@ -11296,25 +11347,25 @@
         <v>277</v>
       </c>
       <c r="D204" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E204" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F204" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G204" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H204" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I204" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K204" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L204" t="s">
         <v>965</v>
@@ -11340,25 +11391,25 @@
         <v>277</v>
       </c>
       <c r="D205" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E205" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F205" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G205" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H205" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I205" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K205" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L205" t="s">
         <v>965</v>
@@ -11384,25 +11435,25 @@
         <v>277</v>
       </c>
       <c r="D206" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E206" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F206" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G206" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H206" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I206" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K206" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L206" t="s">
         <v>965</v>
@@ -11428,25 +11479,25 @@
         <v>277</v>
       </c>
       <c r="D207" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E207" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F207" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G207" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H207" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I207" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K207" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L207" t="s">
         <v>966</v>
@@ -11472,25 +11523,25 @@
         <v>277</v>
       </c>
       <c r="D208" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E208" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F208" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G208" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H208" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I208" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K208" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L208" t="s">
         <v>965</v>
@@ -11516,25 +11567,25 @@
         <v>277</v>
       </c>
       <c r="D209" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E209" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F209" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G209" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H209" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I209" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K209" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L209" t="s">
         <v>965</v>
@@ -11560,25 +11611,25 @@
         <v>277</v>
       </c>
       <c r="D210" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E210" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F210" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G210" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H210" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I210" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J210" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M210" t="s">
         <v>986</v>
@@ -11601,25 +11652,25 @@
         <v>277</v>
       </c>
       <c r="D211" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E211" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F211" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G211" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H211" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I211" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K211" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L211" t="s">
         <v>965</v>
@@ -11645,25 +11696,25 @@
         <v>277</v>
       </c>
       <c r="D212" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E212" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F212" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G212" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H212" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I212" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K212" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L212" t="s">
         <v>965</v>
@@ -11689,22 +11740,22 @@
         <v>277</v>
       </c>
       <c r="D213" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E213" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F213" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G213" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H213" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I213" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M213" t="s">
         <v>986</v>
@@ -11727,25 +11778,25 @@
         <v>277</v>
       </c>
       <c r="D214" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E214" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F214" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G214" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H214" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I214" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K214" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L214" t="s">
         <v>965</v>
@@ -11771,25 +11822,25 @@
         <v>277</v>
       </c>
       <c r="D215" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E215" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F215" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G215" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H215" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I215" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K215" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L215" t="s">
         <v>965</v>
@@ -11815,25 +11866,25 @@
         <v>277</v>
       </c>
       <c r="D216" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E216" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F216" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G216" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H216" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I216" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K216" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L216" t="s">
         <v>965</v>
@@ -11859,13 +11910,13 @@
         <v>277</v>
       </c>
       <c r="D217" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F217" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H217" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M217" t="s">
         <v>986</v>
@@ -11888,28 +11939,28 @@
         <v>277</v>
       </c>
       <c r="D218" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E218" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F218" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G218" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H218" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I218" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J218" t="s">
         <v>231</v>
       </c>
       <c r="K218" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L218" t="s">
         <v>965</v>
@@ -11935,25 +11986,25 @@
         <v>277</v>
       </c>
       <c r="D219" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E219" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F219" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G219" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H219" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I219" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J219" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M219" t="s">
         <v>986</v>
@@ -11976,25 +12027,25 @@
         <v>277</v>
       </c>
       <c r="D220" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E220" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F220" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G220" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H220" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I220" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K220" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L220" s="3" t="s">
         <v>967</v>
@@ -12020,16 +12071,16 @@
         <v>277</v>
       </c>
       <c r="D221" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F221" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H221" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I221" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M221" t="s">
         <v>986</v>
@@ -12052,25 +12103,25 @@
         <v>277</v>
       </c>
       <c r="D222" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E222" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F222" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G222" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H222" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I222" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K222" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L222" t="s">
         <v>965</v>
@@ -12096,16 +12147,16 @@
         <v>277</v>
       </c>
       <c r="D223" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F223" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H223" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I223" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M223" t="s">
         <v>986</v>
@@ -12128,25 +12179,25 @@
         <v>277</v>
       </c>
       <c r="D224" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E224" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F224" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G224" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H224" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I224" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K224" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L224" s="3" t="s">
         <v>968</v>
@@ -12172,16 +12223,16 @@
         <v>277</v>
       </c>
       <c r="D225" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E225" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F225" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G225" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J225" t="s">
         <v>239</v>
@@ -12207,25 +12258,25 @@
         <v>277</v>
       </c>
       <c r="D226" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E226" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F226" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G226" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H226" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I226" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K226" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L226" s="3" t="s">
         <v>969</v>
@@ -12251,22 +12302,22 @@
         <v>277</v>
       </c>
       <c r="D227" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E227" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F227" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G227" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H227" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J227" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M227" t="s">
         <v>986</v>
@@ -12289,22 +12340,22 @@
         <v>277</v>
       </c>
       <c r="D228" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E228" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F228" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G228" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H228" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J228" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="M228" t="s">
         <v>986</v>
@@ -12327,25 +12378,25 @@
         <v>277</v>
       </c>
       <c r="D229" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E229" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F229" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G229" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H229" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I229" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K229" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L229" t="s">
         <v>965</v>
@@ -12371,25 +12422,25 @@
         <v>277</v>
       </c>
       <c r="D230" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E230" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F230" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G230" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H230" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I230" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K230" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L230" t="s">
         <v>965</v>
@@ -12415,13 +12466,13 @@
         <v>277</v>
       </c>
       <c r="D231" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F231" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H231" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M231" t="s">
         <v>986</v>
@@ -12444,13 +12495,13 @@
         <v>277</v>
       </c>
       <c r="D232" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F232" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H232" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M232" t="s">
         <v>986</v>
@@ -12473,16 +12524,16 @@
         <v>277</v>
       </c>
       <c r="D233" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F233" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G233" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H233" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M233" t="s">
         <v>986</v>
@@ -12505,25 +12556,25 @@
         <v>277</v>
       </c>
       <c r="D234" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E234" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F234" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G234" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H234" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I234" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K234" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L234" t="s">
         <v>965</v>
@@ -12549,13 +12600,13 @@
         <v>277</v>
       </c>
       <c r="D235" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F235" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H235" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M235" t="s">
         <v>986</v>
@@ -12578,22 +12629,22 @@
         <v>277</v>
       </c>
       <c r="D236" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E236" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F236" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G236" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H236" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I236" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J236" t="s">
         <v>250</v>
@@ -12619,22 +12670,22 @@
         <v>277</v>
       </c>
       <c r="D237" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E237" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F237" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G237" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H237" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I237" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J237" t="s">
         <v>251</v>
@@ -12660,25 +12711,25 @@
         <v>277</v>
       </c>
       <c r="D238" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E238" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F238" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G238" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H238" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I238" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K238" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L238" t="s">
         <v>965</v>
@@ -12704,16 +12755,16 @@
         <v>277</v>
       </c>
       <c r="D239" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E239" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F239" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G239" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J239" t="s">
         <v>253</v>
@@ -12739,13 +12790,13 @@
         <v>277</v>
       </c>
       <c r="D240" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F240" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J240" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M240" t="s">
         <v>986</v>
@@ -12768,10 +12819,10 @@
         <v>277</v>
       </c>
       <c r="D241" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F241" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M241" t="s">
         <v>986</v>
@@ -12794,10 +12845,10 @@
         <v>277</v>
       </c>
       <c r="D242" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F242" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M242" t="s">
         <v>986</v>
@@ -12820,10 +12871,10 @@
         <v>277</v>
       </c>
       <c r="D243" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F243" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M243" t="s">
         <v>986</v>
@@ -12846,10 +12897,10 @@
         <v>277</v>
       </c>
       <c r="D244" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F244" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M244" t="s">
         <v>986</v>
@@ -12872,10 +12923,10 @@
         <v>277</v>
       </c>
       <c r="D245" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F245" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M245" t="s">
         <v>986</v>
@@ -12898,22 +12949,22 @@
         <v>277</v>
       </c>
       <c r="D246" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E246" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F246" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G246" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H246" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I246" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L246" t="s">
         <v>970</v>
@@ -12942,19 +12993,19 @@
         <v>296</v>
       </c>
       <c r="E247" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F247" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G247" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H247" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I247" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L247" t="s">
         <v>970</v>
@@ -12983,19 +13034,19 @@
         <v>296</v>
       </c>
       <c r="E248" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F248" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G248" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H248" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I248" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L248" t="s">
         <v>970</v>
@@ -13024,19 +13075,19 @@
         <v>296</v>
       </c>
       <c r="E249" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F249" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G249" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H249" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I249" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L249" t="s">
         <v>970</v>
@@ -13065,19 +13116,19 @@
         <v>296</v>
       </c>
       <c r="E250" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F250" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G250" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H250" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I250" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L250" t="s">
         <v>970</v>
@@ -13106,19 +13157,19 @@
         <v>296</v>
       </c>
       <c r="E251" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F251" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G251" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H251" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I251" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L251" t="s">
         <v>970</v>
@@ -13147,19 +13198,19 @@
         <v>296</v>
       </c>
       <c r="E252" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F252" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G252" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H252" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I252" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L252" t="s">
         <v>970</v>
@@ -13188,19 +13239,19 @@
         <v>296</v>
       </c>
       <c r="E253" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F253" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G253" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H253" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I253" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L253" t="s">
         <v>970</v>
@@ -13226,13 +13277,13 @@
         <v>277</v>
       </c>
       <c r="D254" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E254" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H254" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L254" s="3" t="s">
         <v>971</v>
@@ -13258,13 +13309,13 @@
         <v>277</v>
       </c>
       <c r="D255" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E255" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H255" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L255" s="3" t="s">
         <v>972</v>
@@ -13290,13 +13341,13 @@
         <v>277</v>
       </c>
       <c r="D256" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E256" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H256" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L256" s="3" t="s">
         <v>973</v>
@@ -13322,13 +13373,13 @@
         <v>277</v>
       </c>
       <c r="D257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E257" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H257" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L257" s="3" t="s">
         <v>974</v>
@@ -13354,25 +13405,25 @@
         <v>277</v>
       </c>
       <c r="D258" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E258" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F258" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G258" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H258" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I258" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K258" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L258" s="3" t="s">
         <v>975</v>
@@ -13398,25 +13449,25 @@
         <v>277</v>
       </c>
       <c r="D259" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E259" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F259" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G259" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H259" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I259" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K259" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L259" s="3" t="s">
         <v>976</v>
@@ -13442,25 +13493,25 @@
         <v>277</v>
       </c>
       <c r="D260" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E260" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F260" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G260" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H260" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I260" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K260" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L260" s="3" t="s">
         <v>977</v>
@@ -13486,25 +13537,25 @@
         <v>277</v>
       </c>
       <c r="D261" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E261" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F261" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G261" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H261" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I261" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K261" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L261" s="3" t="s">
         <v>978</v>
@@ -13530,10 +13581,10 @@
         <v>277</v>
       </c>
       <c r="D262" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F262" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M262" t="s">
         <v>986</v>
@@ -13556,19 +13607,19 @@
         <v>277</v>
       </c>
       <c r="D263" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E263" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H263" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I263" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K263" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L263" s="3" t="s">
         <v>979</v>
@@ -13588,43 +13639,44 @@
     <hyperlink ref="K10" r:id="rId1"/>
     <hyperlink ref="L10" r:id="rId2"/>
     <hyperlink ref="L23" r:id="rId3"/>
-    <hyperlink ref="L47" r:id="rId4"/>
-    <hyperlink ref="L49" r:id="rId5"/>
-    <hyperlink ref="L50" r:id="rId6"/>
-    <hyperlink ref="L51" r:id="rId7"/>
-    <hyperlink ref="L56" r:id="rId8"/>
-    <hyperlink ref="L57" r:id="rId9"/>
-    <hyperlink ref="L80" r:id="rId10"/>
-    <hyperlink ref="L107" r:id="rId11"/>
-    <hyperlink ref="L113" r:id="rId12"/>
-    <hyperlink ref="L120" r:id="rId13"/>
-    <hyperlink ref="L129" r:id="rId14"/>
-    <hyperlink ref="L130" r:id="rId15"/>
-    <hyperlink ref="L131" r:id="rId16"/>
-    <hyperlink ref="L132" r:id="rId17"/>
-    <hyperlink ref="L143" r:id="rId18"/>
-    <hyperlink ref="L153" r:id="rId19"/>
-    <hyperlink ref="L179" r:id="rId20"/>
-    <hyperlink ref="L180" r:id="rId21"/>
-    <hyperlink ref="L181" r:id="rId22"/>
-    <hyperlink ref="L182" r:id="rId23"/>
-    <hyperlink ref="L186" r:id="rId24"/>
-    <hyperlink ref="L187" r:id="rId25"/>
-    <hyperlink ref="L192" r:id="rId26"/>
-    <hyperlink ref="L194" r:id="rId27"/>
-    <hyperlink ref="L195" r:id="rId28"/>
-    <hyperlink ref="L220" r:id="rId29"/>
-    <hyperlink ref="L224" r:id="rId30"/>
-    <hyperlink ref="L226" r:id="rId31"/>
-    <hyperlink ref="L254" r:id="rId32"/>
-    <hyperlink ref="L255" r:id="rId33"/>
-    <hyperlink ref="L256" r:id="rId34"/>
-    <hyperlink ref="L257" r:id="rId35"/>
-    <hyperlink ref="L258" r:id="rId36"/>
-    <hyperlink ref="L259" r:id="rId37"/>
-    <hyperlink ref="L260" r:id="rId38"/>
-    <hyperlink ref="L261" r:id="rId39"/>
-    <hyperlink ref="L263" r:id="rId40"/>
+    <hyperlink ref="L41" r:id="rId4"/>
+    <hyperlink ref="L47" r:id="rId5"/>
+    <hyperlink ref="L49" r:id="rId6"/>
+    <hyperlink ref="L50" r:id="rId7"/>
+    <hyperlink ref="L51" r:id="rId8"/>
+    <hyperlink ref="L56" r:id="rId9"/>
+    <hyperlink ref="L57" r:id="rId10"/>
+    <hyperlink ref="L80" r:id="rId11"/>
+    <hyperlink ref="L107" r:id="rId12"/>
+    <hyperlink ref="L113" r:id="rId13"/>
+    <hyperlink ref="L120" r:id="rId14"/>
+    <hyperlink ref="L129" r:id="rId15"/>
+    <hyperlink ref="L130" r:id="rId16"/>
+    <hyperlink ref="L131" r:id="rId17"/>
+    <hyperlink ref="L132" r:id="rId18"/>
+    <hyperlink ref="L143" r:id="rId19"/>
+    <hyperlink ref="L153" r:id="rId20"/>
+    <hyperlink ref="L179" r:id="rId21"/>
+    <hyperlink ref="L180" r:id="rId22"/>
+    <hyperlink ref="L181" r:id="rId23"/>
+    <hyperlink ref="L182" r:id="rId24"/>
+    <hyperlink ref="L186" r:id="rId25"/>
+    <hyperlink ref="L187" r:id="rId26"/>
+    <hyperlink ref="L192" r:id="rId27"/>
+    <hyperlink ref="L194" r:id="rId28"/>
+    <hyperlink ref="L195" r:id="rId29"/>
+    <hyperlink ref="L220" r:id="rId30"/>
+    <hyperlink ref="L224" r:id="rId31"/>
+    <hyperlink ref="L226" r:id="rId32"/>
+    <hyperlink ref="L254" r:id="rId33"/>
+    <hyperlink ref="L255" r:id="rId34"/>
+    <hyperlink ref="L256" r:id="rId35"/>
+    <hyperlink ref="L257" r:id="rId36"/>
+    <hyperlink ref="L258" r:id="rId37"/>
+    <hyperlink ref="L259" r:id="rId38"/>
+    <hyperlink ref="L260" r:id="rId39"/>
+    <hyperlink ref="L261" r:id="rId40"/>
+    <hyperlink ref="L263" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/w_after replace  Employee_Process.xlsx
+++ b/w_after replace  Employee_Process.xlsx
@@ -10512,10 +10512,10 @@
         <v>1027</v>
       </c>
       <c r="N165" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="O165" s="2">
-        <v>44986.52222222222</v>
+        <v>44987.75069444445</v>
       </c>
       <c r="P165" t="s">
         <v>1040</v>

--- a/w_after replace  Employee_Process.xlsx
+++ b/w_after replace  Employee_Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="1126">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -3233,6 +3233,9 @@
   </si>
   <si>
     <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023030606181-4030</t>
+  </si>
+  <si>
+    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023030706296-3558</t>
   </si>
   <si>
     <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023030607129-3092</t>
@@ -3920,16 +3923,16 @@
         <v>903</v>
       </c>
       <c r="M2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="N2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O2" s="2">
         <v>44986.52361111111</v>
       </c>
       <c r="P2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3961,16 +3964,16 @@
         <v>903</v>
       </c>
       <c r="M3" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="N3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O3" s="2">
         <v>44986.52361111111</v>
       </c>
       <c r="P3" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4002,16 +4005,16 @@
         <v>904</v>
       </c>
       <c r="M4" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="N4" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O4" s="2">
         <v>44986.52361111111</v>
       </c>
       <c r="P4" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4043,16 +4046,16 @@
         <v>905</v>
       </c>
       <c r="M5" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N5" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O5" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P5" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4084,16 +4087,16 @@
         <v>821</v>
       </c>
       <c r="M6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N6" t="s">
         <v>1105</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1104</v>
       </c>
       <c r="O6" s="2">
         <v>44986.52222222222</v>
       </c>
       <c r="P6" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4128,16 +4131,16 @@
         <v>19</v>
       </c>
       <c r="M7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N7" t="s">
         <v>1105</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1104</v>
       </c>
       <c r="O7" s="2">
         <v>44986.52222222222</v>
       </c>
       <c r="P7" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4178,16 +4181,16 @@
         <v>1009</v>
       </c>
       <c r="M8" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="N8" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O8" s="2">
         <v>44987.48125</v>
       </c>
       <c r="P8" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4222,16 +4225,16 @@
         <v>1010</v>
       </c>
       <c r="M9" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N9" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O9" s="2">
         <v>44988.55694444444</v>
       </c>
       <c r="P9" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4266,16 +4269,16 @@
         <v>1011</v>
       </c>
       <c r="M10" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N10" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O10" s="2">
         <v>44988.55902777778</v>
       </c>
       <c r="P10" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4310,16 +4313,16 @@
         <v>1012</v>
       </c>
       <c r="M11" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N11" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O11" s="2">
         <v>44988.56111111111</v>
       </c>
       <c r="P11" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4354,16 +4357,16 @@
         <v>1013</v>
       </c>
       <c r="M12" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N12" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O12" s="2">
         <v>44988.5625</v>
       </c>
       <c r="P12" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4398,16 +4401,16 @@
         <v>1014</v>
       </c>
       <c r="M13" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N13" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O13" s="2">
         <v>44988.56388888889</v>
       </c>
       <c r="P13" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4442,16 +4445,16 @@
         <v>1015</v>
       </c>
       <c r="M14" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N14" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O14" s="2">
         <v>44988.56597222222</v>
       </c>
       <c r="P14" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4489,16 +4492,16 @@
         <v>286</v>
       </c>
       <c r="M15" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N15" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O15" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P15" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4533,16 +4536,16 @@
         <v>286</v>
       </c>
       <c r="M16" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N16" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O16" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P16" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -4577,16 +4580,16 @@
         <v>286</v>
       </c>
       <c r="M17" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N17" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O17" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P17" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -4621,16 +4624,16 @@
         <v>908</v>
       </c>
       <c r="M18" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N18" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O18" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P18" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -4668,16 +4671,16 @@
         <v>909</v>
       </c>
       <c r="M19" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N19" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O19" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P19" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4709,16 +4712,16 @@
         <v>909</v>
       </c>
       <c r="M20" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N20" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O20" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P20" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4750,16 +4753,16 @@
         <v>909</v>
       </c>
       <c r="M21" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N21" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O21" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P21" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4791,16 +4794,16 @@
         <v>909</v>
       </c>
       <c r="M22" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N22" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O22" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P22" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -4835,16 +4838,16 @@
         <v>909</v>
       </c>
       <c r="M23" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N23" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O23" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P23" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -4876,16 +4879,16 @@
         <v>909</v>
       </c>
       <c r="M24" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N24" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O24" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P24" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -4920,16 +4923,16 @@
         <v>910</v>
       </c>
       <c r="M25" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N25" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O25" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P25" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4961,16 +4964,16 @@
         <v>1016</v>
       </c>
       <c r="M26" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N26" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O26" s="2">
         <v>44988.67638888889</v>
       </c>
       <c r="P26" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -5005,16 +5008,16 @@
         <v>910</v>
       </c>
       <c r="M27" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N27" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O27" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P27" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -5049,16 +5052,16 @@
         <v>910</v>
       </c>
       <c r="M28" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N28" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O28" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P28" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -5093,16 +5096,16 @@
         <v>910</v>
       </c>
       <c r="M29" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N29" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O29" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P29" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -5137,16 +5140,16 @@
         <v>910</v>
       </c>
       <c r="M30" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N30" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O30" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P30" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -5181,16 +5184,16 @@
         <v>910</v>
       </c>
       <c r="M31" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N31" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O31" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P31" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -5225,16 +5228,16 @@
         <v>910</v>
       </c>
       <c r="M32" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N32" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O32" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P32" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -5269,16 +5272,16 @@
         <v>910</v>
       </c>
       <c r="M33" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N33" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O33" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P33" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -5313,16 +5316,16 @@
         <v>910</v>
       </c>
       <c r="M34" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N34" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O34" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P34" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -5357,16 +5360,16 @@
         <v>910</v>
       </c>
       <c r="M35" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N35" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O35" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P35" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -5401,16 +5404,16 @@
         <v>910</v>
       </c>
       <c r="M36" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N36" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O36" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P36" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -5445,16 +5448,16 @@
         <v>910</v>
       </c>
       <c r="M37" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N37" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O37" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P37" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -5489,16 +5492,16 @@
         <v>910</v>
       </c>
       <c r="M38" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N38" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O38" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P38" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -5533,16 +5536,16 @@
         <v>910</v>
       </c>
       <c r="M39" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N39" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O39" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P39" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -5577,16 +5580,16 @@
         <v>910</v>
       </c>
       <c r="M40" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N40" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O40" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P40" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -5621,16 +5624,16 @@
         <v>910</v>
       </c>
       <c r="M41" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N41" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O41" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P41" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -5665,16 +5668,16 @@
         <v>910</v>
       </c>
       <c r="M42" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N42" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O42" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P42" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -5709,16 +5712,16 @@
         <v>910</v>
       </c>
       <c r="M43" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N43" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O43" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P43" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -5753,16 +5756,16 @@
         <v>910</v>
       </c>
       <c r="M44" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N44" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O44" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P44" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -5797,16 +5800,16 @@
         <v>910</v>
       </c>
       <c r="M45" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N45" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O45" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P45" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -5841,16 +5844,16 @@
         <v>910</v>
       </c>
       <c r="M46" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N46" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O46" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P46" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -5885,16 +5888,16 @@
         <v>910</v>
       </c>
       <c r="M47" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N47" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O47" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P47" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -5929,16 +5932,16 @@
         <v>912</v>
       </c>
       <c r="M48" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N48" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O48" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P48" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -5973,16 +5976,16 @@
         <v>913</v>
       </c>
       <c r="M49" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N49" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O49" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P49" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -6014,16 +6017,16 @@
         <v>1017</v>
       </c>
       <c r="M50" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N50" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O50" s="2">
         <v>44991.48055555556</v>
       </c>
       <c r="P50" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -6052,16 +6055,16 @@
         <v>915</v>
       </c>
       <c r="M51" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N51" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O51" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P51" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -6099,16 +6102,16 @@
         <v>1018</v>
       </c>
       <c r="M52" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N52" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O52" s="2">
         <v>44985.79583333333</v>
       </c>
       <c r="P52" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -6146,16 +6149,16 @@
         <v>1019</v>
       </c>
       <c r="M53" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N53" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O53" s="2">
         <v>44985.79722222222</v>
       </c>
       <c r="P53" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -6193,16 +6196,16 @@
         <v>1020</v>
       </c>
       <c r="M54" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N54" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O54" s="2">
         <v>44985.79722222222</v>
       </c>
       <c r="P54" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -6219,16 +6222,16 @@
         <v>306</v>
       </c>
       <c r="M55" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N55" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O55" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P55" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -6245,16 +6248,16 @@
         <v>306</v>
       </c>
       <c r="M56" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N56" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O56" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P56" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -6271,16 +6274,16 @@
         <v>306</v>
       </c>
       <c r="M57" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N57" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O57" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P57" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -6297,16 +6300,16 @@
         <v>306</v>
       </c>
       <c r="M58" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N58" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O58" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P58" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -6344,16 +6347,16 @@
         <v>1021</v>
       </c>
       <c r="M59" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N59" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O59" s="2">
         <v>44985.79722222222</v>
       </c>
       <c r="P59" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -6391,16 +6394,16 @@
         <v>1022</v>
       </c>
       <c r="M60" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N60" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O60" s="2">
         <v>44991.48194444444</v>
       </c>
       <c r="P60" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -6417,16 +6420,16 @@
         <v>306</v>
       </c>
       <c r="M61" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N61" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O61" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P61" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -6443,16 +6446,16 @@
         <v>306</v>
       </c>
       <c r="M62" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N62" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O62" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P62" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -6469,16 +6472,16 @@
         <v>306</v>
       </c>
       <c r="M63" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N63" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O63" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P63" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -6495,16 +6498,16 @@
         <v>306</v>
       </c>
       <c r="M64" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N64" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O64" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P64" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -6521,16 +6524,16 @@
         <v>306</v>
       </c>
       <c r="M65" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N65" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O65" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P65" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -6547,16 +6550,16 @@
         <v>306</v>
       </c>
       <c r="M66" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N66" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O66" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P66" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -6573,16 +6576,16 @@
         <v>306</v>
       </c>
       <c r="M67" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N67" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O67" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P67" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -6599,16 +6602,16 @@
         <v>306</v>
       </c>
       <c r="M68" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N68" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O68" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P68" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -6625,16 +6628,16 @@
         <v>306</v>
       </c>
       <c r="M69" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N69" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O69" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P69" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -6651,16 +6654,16 @@
         <v>306</v>
       </c>
       <c r="M70" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N70" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O70" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P70" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -6677,16 +6680,16 @@
         <v>306</v>
       </c>
       <c r="M71" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N71" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O71" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P71" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -6721,16 +6724,16 @@
         <v>920</v>
       </c>
       <c r="M72" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N72" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O72" s="2">
         <v>44986.60138888889</v>
       </c>
       <c r="P72" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -6768,16 +6771,16 @@
         <v>921</v>
       </c>
       <c r="M73" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N73" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O73" s="2">
         <v>44987.49791666667</v>
       </c>
       <c r="P73" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -6812,16 +6815,16 @@
         <v>922</v>
       </c>
       <c r="M74" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N74" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O74" s="2">
         <v>44986.75</v>
       </c>
       <c r="P74" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -6853,16 +6856,16 @@
         <v>923</v>
       </c>
       <c r="M75" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N75" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O75" s="2">
         <v>44986.75</v>
       </c>
       <c r="P75" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -6897,16 +6900,16 @@
         <v>924</v>
       </c>
       <c r="M76" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N76" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O76" s="2">
         <v>44987.54583333333</v>
       </c>
       <c r="P76" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -6941,16 +6944,16 @@
         <v>925</v>
       </c>
       <c r="M77" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N77" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O77" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P77" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -6985,16 +6988,16 @@
         <v>926</v>
       </c>
       <c r="M78" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N78" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O78" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P78" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -7023,16 +7026,16 @@
         <v>927</v>
       </c>
       <c r="M79" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N79" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O79" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P79" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -7067,16 +7070,16 @@
         <v>928</v>
       </c>
       <c r="M80" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N80" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O80" s="2">
         <v>44987.63888888889</v>
       </c>
       <c r="P80" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -7114,16 +7117,16 @@
         <v>1023</v>
       </c>
       <c r="M81" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N81" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O81" s="2">
         <v>44991.48194444444</v>
       </c>
       <c r="P81" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -7161,16 +7164,16 @@
         <v>1024</v>
       </c>
       <c r="M82" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N82" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O82" s="2">
         <v>44991.48194444444</v>
       </c>
       <c r="P82" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -7208,16 +7211,16 @@
         <v>1025</v>
       </c>
       <c r="M83" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N83" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O83" s="2">
         <v>44987.61597222222</v>
       </c>
       <c r="P83" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -7246,16 +7249,16 @@
         <v>932</v>
       </c>
       <c r="M84" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N84" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O84" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P84" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -7293,16 +7296,16 @@
         <v>1026</v>
       </c>
       <c r="M85" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N85" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O85" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P85" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -7340,16 +7343,16 @@
         <v>1027</v>
       </c>
       <c r="M86" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N86" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O86" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P86" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -7387,16 +7390,16 @@
         <v>1028</v>
       </c>
       <c r="M87" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N87" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O87" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P87" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -7425,16 +7428,16 @@
         <v>936</v>
       </c>
       <c r="M88" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N88" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O88" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P88" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -7472,16 +7475,16 @@
         <v>1029</v>
       </c>
       <c r="M89" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N89" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O89" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P89" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -7519,16 +7522,16 @@
         <v>1030</v>
       </c>
       <c r="M90" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N90" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O90" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P90" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -7566,16 +7569,16 @@
         <v>1031</v>
       </c>
       <c r="M91" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N91" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O91" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P91" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -7613,16 +7616,16 @@
         <v>1032</v>
       </c>
       <c r="M92" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N92" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O92" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P92" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -7660,16 +7663,16 @@
         <v>1033</v>
       </c>
       <c r="M93" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N93" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O93" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P93" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -7707,16 +7710,16 @@
         <v>1034</v>
       </c>
       <c r="M94" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N94" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O94" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P94" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -7754,16 +7757,16 @@
         <v>1035</v>
       </c>
       <c r="M95" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N95" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O95" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P95" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -7801,16 +7804,16 @@
         <v>1036</v>
       </c>
       <c r="M96" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N96" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O96" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P96" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -7848,16 +7851,16 @@
         <v>1037</v>
       </c>
       <c r="M97" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N97" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O97" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P97" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -7892,16 +7895,16 @@
         <v>946</v>
       </c>
       <c r="M98" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N98" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O98" s="2">
         <v>44986.75</v>
       </c>
       <c r="P98" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -7936,16 +7939,16 @@
         <v>947</v>
       </c>
       <c r="M99" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N99" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O99" s="2">
         <v>44986.75</v>
       </c>
       <c r="P99" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -7980,16 +7983,16 @@
         <v>948</v>
       </c>
       <c r="M100" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N100" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O100" s="2">
         <v>44986.75</v>
       </c>
       <c r="P100" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -8021,16 +8024,16 @@
         <v>949</v>
       </c>
       <c r="M101" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N101" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O101" s="2">
         <v>44986.75</v>
       </c>
       <c r="P101" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -8062,16 +8065,16 @@
         <v>950</v>
       </c>
       <c r="M102" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N102" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O102" s="2">
         <v>44986.75</v>
       </c>
       <c r="P102" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -8094,16 +8097,16 @@
         <v>951</v>
       </c>
       <c r="M103" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N103" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O103" s="2">
         <v>44986.75</v>
       </c>
       <c r="P103" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -8138,16 +8141,16 @@
         <v>952</v>
       </c>
       <c r="M104" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N104" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O104" s="2">
         <v>44986.75</v>
       </c>
       <c r="P104" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -8182,16 +8185,16 @@
         <v>953</v>
       </c>
       <c r="M105" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N105" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O105" s="2">
         <v>44986.75</v>
       </c>
       <c r="P105" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -8220,16 +8223,16 @@
         <v>953</v>
       </c>
       <c r="M106" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N106" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O106" s="2">
         <v>44986.75</v>
       </c>
       <c r="P106" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -8258,16 +8261,16 @@
         <v>954</v>
       </c>
       <c r="M107" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N107" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O107" s="2">
         <v>44986.75</v>
       </c>
       <c r="P107" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -8296,16 +8299,16 @@
         <v>954</v>
       </c>
       <c r="M108" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N108" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O108" s="2">
         <v>44986.75</v>
       </c>
       <c r="P108" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -8346,16 +8349,16 @@
         <v>1038</v>
       </c>
       <c r="M109" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N109" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O109" s="2">
         <v>44988.6875</v>
       </c>
       <c r="P109" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -8390,16 +8393,16 @@
         <v>955</v>
       </c>
       <c r="M110" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N110" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O110" s="2">
         <v>44986.75</v>
       </c>
       <c r="P110" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -8434,16 +8437,16 @@
         <v>955</v>
       </c>
       <c r="M111" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N111" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O111" s="2">
         <v>44986.75</v>
       </c>
       <c r="P111" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -8478,16 +8481,16 @@
         <v>955</v>
       </c>
       <c r="M112" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N112" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O112" s="2">
         <v>44986.75</v>
       </c>
       <c r="P112" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -8522,16 +8525,16 @@
         <v>955</v>
       </c>
       <c r="M113" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N113" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O113" s="2">
         <v>44986.75</v>
       </c>
       <c r="P113" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -8566,16 +8569,16 @@
         <v>955</v>
       </c>
       <c r="M114" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N114" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O114" s="2">
         <v>44986.75</v>
       </c>
       <c r="P114" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -8616,16 +8619,16 @@
         <v>1039</v>
       </c>
       <c r="M115" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N115" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O115" s="2">
         <v>44991.48680555556</v>
       </c>
       <c r="P115" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -8657,16 +8660,16 @@
         <v>956</v>
       </c>
       <c r="M116" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N116" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O116" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P116" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -8698,16 +8701,16 @@
         <v>956</v>
       </c>
       <c r="M117" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N117" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O117" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P117" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -8739,16 +8742,16 @@
         <v>956</v>
       </c>
       <c r="M118" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N118" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O118" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P118" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -8780,16 +8783,16 @@
         <v>956</v>
       </c>
       <c r="M119" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N119" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O119" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P119" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -8821,16 +8824,16 @@
         <v>956</v>
       </c>
       <c r="M120" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N120" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O120" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P120" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -8862,16 +8865,16 @@
         <v>956</v>
       </c>
       <c r="M121" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N121" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O121" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P121" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -8912,16 +8915,16 @@
         <v>1040</v>
       </c>
       <c r="M122" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N122" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O122" s="2">
         <v>44985.79861111111</v>
       </c>
       <c r="P122" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -8956,16 +8959,16 @@
         <v>957</v>
       </c>
       <c r="M123" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N123" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O123" s="2">
         <v>44986.75</v>
       </c>
       <c r="P123" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -9000,16 +9003,16 @@
         <v>957</v>
       </c>
       <c r="M124" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N124" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O124" s="2">
         <v>44986.75</v>
       </c>
       <c r="P124" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -9044,16 +9047,16 @@
         <v>958</v>
       </c>
       <c r="M125" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N125" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O125" s="2">
         <v>44986.75</v>
       </c>
       <c r="P125" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -9088,16 +9091,16 @@
         <v>959</v>
       </c>
       <c r="M126" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N126" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O126" s="2">
         <v>44986.75</v>
       </c>
       <c r="P126" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -9129,16 +9132,16 @@
         <v>960</v>
       </c>
       <c r="M127" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N127" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O127" s="2">
         <v>44991.4875</v>
       </c>
       <c r="P127" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -9158,16 +9161,16 @@
         <v>961</v>
       </c>
       <c r="M128" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N128" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O128" s="2">
         <v>44986.75</v>
       </c>
       <c r="P128" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -9196,10 +9199,10 @@
         <v>962</v>
       </c>
       <c r="M129" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N129" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O129" s="2">
         <v>44991.49444444444</v>
@@ -9237,10 +9240,10 @@
         <v>963</v>
       </c>
       <c r="M130" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N130" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O130" s="2">
         <v>44991.49861111111</v>
@@ -9281,16 +9284,16 @@
         <v>1041</v>
       </c>
       <c r="M131" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N131" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O131" s="2">
         <v>44991.48680555556</v>
       </c>
       <c r="P131" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -9328,16 +9331,16 @@
         <v>1042</v>
       </c>
       <c r="M132" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N132" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O132" s="2">
         <v>44986.54861111111</v>
       </c>
       <c r="P132" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -9375,16 +9378,16 @@
         <v>1043</v>
       </c>
       <c r="M133" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N133" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O133" s="2">
         <v>44986.54791666667</v>
       </c>
       <c r="P133" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -9422,16 +9425,16 @@
         <v>1044</v>
       </c>
       <c r="M134" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N134" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O134" s="2">
         <v>44986.54861111111</v>
       </c>
       <c r="P134" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -9466,16 +9469,16 @@
         <v>964</v>
       </c>
       <c r="M135" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N135" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O135" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P135" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -9510,16 +9513,16 @@
         <v>964</v>
       </c>
       <c r="M136" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N136" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O136" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P136" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -9554,16 +9557,16 @@
         <v>964</v>
       </c>
       <c r="M137" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N137" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O137" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P137" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -9598,16 +9601,16 @@
         <v>964</v>
       </c>
       <c r="M138" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N138" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O138" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P138" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -9642,16 +9645,16 @@
         <v>964</v>
       </c>
       <c r="M139" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N139" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O139" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P139" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -9686,16 +9689,16 @@
         <v>964</v>
       </c>
       <c r="M140" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N140" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O140" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P140" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -9730,16 +9733,16 @@
         <v>964</v>
       </c>
       <c r="M141" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N141" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O141" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P141" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -9774,16 +9777,16 @@
         <v>964</v>
       </c>
       <c r="M142" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N142" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O142" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P142" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -9818,16 +9821,16 @@
         <v>964</v>
       </c>
       <c r="M143" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N143" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O143" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P143" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -9865,16 +9868,16 @@
         <v>965</v>
       </c>
       <c r="M144" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N144" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O144" s="2">
         <v>44986.75</v>
       </c>
       <c r="P144" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -9915,13 +9918,13 @@
         <v>1045</v>
       </c>
       <c r="M145" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N145" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O145" s="2">
-        <v>44985.79930555556</v>
+        <v>44992.61597222222</v>
       </c>
       <c r="P145" t="s">
         <v>1121</v>
@@ -9956,16 +9959,16 @@
         <v>965</v>
       </c>
       <c r="M146" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N146" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O146" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P146" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -10003,16 +10006,16 @@
         <v>965</v>
       </c>
       <c r="M147" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N147" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O147" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P147" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -10041,16 +10044,16 @@
         <v>965</v>
       </c>
       <c r="M148" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N148" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O148" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P148" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -10079,16 +10082,16 @@
         <v>965</v>
       </c>
       <c r="M149" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N149" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O149" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P149" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -10117,16 +10120,16 @@
         <v>965</v>
       </c>
       <c r="M150" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N150" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O150" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P150" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -10158,16 +10161,16 @@
         <v>965</v>
       </c>
       <c r="M151" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N151" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O151" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P151" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -10202,16 +10205,16 @@
         <v>965</v>
       </c>
       <c r="M152" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N152" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O152" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P152" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -10243,16 +10246,16 @@
         <v>965</v>
       </c>
       <c r="M153" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N153" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O153" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P153" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -10284,16 +10287,16 @@
         <v>822</v>
       </c>
       <c r="M154" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="N154" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O154" s="2">
         <v>44986.52291666667</v>
       </c>
       <c r="P154" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -10331,16 +10334,16 @@
         <v>1046</v>
       </c>
       <c r="M155" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N155" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O155" s="2">
         <v>44986.43125</v>
       </c>
       <c r="P155" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -10378,16 +10381,16 @@
         <v>1047</v>
       </c>
       <c r="M156" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="N156" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O156" s="2">
         <v>44985.79930555556</v>
       </c>
       <c r="P156" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -10419,16 +10422,16 @@
         <v>848</v>
       </c>
       <c r="M157" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="N157" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O157" s="2">
         <v>44986.52291666667</v>
       </c>
       <c r="P157" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -10460,16 +10463,16 @@
         <v>822</v>
       </c>
       <c r="M158" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="N158" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O158" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P158" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -10504,16 +10507,16 @@
         <v>968</v>
       </c>
       <c r="M159" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="N159" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O159" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P159" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -10548,16 +10551,16 @@
         <v>968</v>
       </c>
       <c r="M160" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N160" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O160" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P160" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -10592,16 +10595,16 @@
         <v>968</v>
       </c>
       <c r="M161" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="N161" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O161" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P161" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -10636,16 +10639,16 @@
         <v>968</v>
       </c>
       <c r="M162" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="N162" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O162" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P162" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -10680,16 +10683,16 @@
         <v>968</v>
       </c>
       <c r="M163" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="N163" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O163" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P163" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -10724,16 +10727,16 @@
         <v>968</v>
       </c>
       <c r="M164" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="N164" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O164" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P164" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -10768,16 +10771,16 @@
         <v>968</v>
       </c>
       <c r="M165" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="N165" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O165" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P165" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -10812,16 +10815,16 @@
         <v>968</v>
       </c>
       <c r="M166" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="N166" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O166" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P166" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10856,16 +10859,16 @@
         <v>968</v>
       </c>
       <c r="M167" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="N167" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O167" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P167" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10900,16 +10903,16 @@
         <v>968</v>
       </c>
       <c r="M168" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="N168" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O168" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P168" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10944,16 +10947,16 @@
         <v>969</v>
       </c>
       <c r="M169" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N169" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O169" s="2">
         <v>44986.75</v>
       </c>
       <c r="P169" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10985,16 +10988,16 @@
         <v>822</v>
       </c>
       <c r="M170" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="N170" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O170" s="2">
         <v>44986.52291666667</v>
       </c>
       <c r="P170" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -11026,10 +11029,10 @@
         <v>970</v>
       </c>
       <c r="M171" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N171" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O171" s="2">
         <v>44988.58194444444</v>
@@ -11064,10 +11067,10 @@
         <v>971</v>
       </c>
       <c r="M172" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N172" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O172" s="2">
         <v>44988.71944444445</v>
@@ -11102,10 +11105,10 @@
         <v>972</v>
       </c>
       <c r="M173" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N173" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O173" s="2">
         <v>44988.72152777778</v>
@@ -11128,10 +11131,10 @@
         <v>973</v>
       </c>
       <c r="M174" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N174" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O174" s="2">
         <v>44988.59444444445</v>
@@ -11160,10 +11163,10 @@
         <v>974</v>
       </c>
       <c r="M175" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N175" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O175" s="2">
         <v>44988.77569444444</v>
@@ -11192,10 +11195,10 @@
         <v>975</v>
       </c>
       <c r="M176" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N176" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O176" s="2">
         <v>44988.78263888889</v>
@@ -11224,10 +11227,10 @@
         <v>976</v>
       </c>
       <c r="M177" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N177" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O177" s="2">
         <v>44988.78541666667</v>
@@ -11271,16 +11274,16 @@
         <v>1048</v>
       </c>
       <c r="M178" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N178" t="s">
         <v>1108</v>
       </c>
       <c r="O178" s="2">
-        <v>44991.61388888889</v>
+        <v>44992.55763888889</v>
       </c>
       <c r="P178" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -11315,16 +11318,16 @@
         <v>978</v>
       </c>
       <c r="M179" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N179" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O179" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P179" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -11358,17 +11361,20 @@
       <c r="K180" t="s">
         <v>979</v>
       </c>
+      <c r="L180" s="3" t="s">
+        <v>1049</v>
+      </c>
       <c r="M180" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N180" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O180" s="2">
-        <v>44991.63958333333</v>
+        <v>44992.61041666667</v>
       </c>
       <c r="P180" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -11403,19 +11409,19 @@
         <v>403</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="M181" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N181" t="s">
         <v>1108</v>
       </c>
       <c r="O181" s="2">
-        <v>44991.65277777778</v>
+        <v>44992.55833333333</v>
       </c>
       <c r="P181" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -11450,16 +11456,16 @@
         <v>404</v>
       </c>
       <c r="M182" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N182" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O182" s="2">
         <v>44991.65625</v>
       </c>
       <c r="P182" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -11494,16 +11500,16 @@
         <v>405</v>
       </c>
       <c r="M183" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N183" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O183" s="2">
         <v>44991.67986111111</v>
       </c>
       <c r="P183" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -11538,16 +11544,16 @@
         <v>406</v>
       </c>
       <c r="M184" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N184" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O184" s="2">
         <v>44991.68958333333</v>
       </c>
       <c r="P184" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -11582,16 +11588,16 @@
         <v>407</v>
       </c>
       <c r="M185" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N185" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O185" s="2">
         <v>44991.69305555556</v>
       </c>
       <c r="P185" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -11626,16 +11632,16 @@
         <v>408</v>
       </c>
       <c r="M186" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N186" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O186" s="2">
         <v>44991.69791666666</v>
       </c>
       <c r="P186" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -11670,16 +11676,16 @@
         <v>409</v>
       </c>
       <c r="M187" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N187" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O187" s="2">
         <v>44991.70833333334</v>
       </c>
       <c r="P187" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11702,16 +11708,16 @@
         <v>980</v>
       </c>
       <c r="M188" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N188" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O188" s="2">
         <v>44986.52222222222</v>
       </c>
       <c r="P188" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11737,16 +11743,16 @@
         <v>411</v>
       </c>
       <c r="M189" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N189" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O189" s="2">
         <v>44987.75069444445</v>
       </c>
       <c r="P189" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11769,16 +11775,16 @@
         <v>412</v>
       </c>
       <c r="M190" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N190" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O190" s="2">
         <v>44986.52222222222</v>
       </c>
       <c r="P190" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11813,19 +11819,19 @@
         <v>981</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="M191" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N191" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O191" s="2">
         <v>44987.56666666667</v>
       </c>
       <c r="P191" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11860,19 +11866,19 @@
         <v>982</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="M192" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N192" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O192" s="2">
         <v>44985.8</v>
       </c>
       <c r="P192" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11907,19 +11913,19 @@
         <v>983</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="M193" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N193" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O193" s="2">
         <v>44985.8</v>
       </c>
       <c r="P193" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11954,19 +11960,19 @@
         <v>984</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="M194" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N194" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O194" s="2">
         <v>44985.8</v>
       </c>
       <c r="P194" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -12001,16 +12007,16 @@
         <v>209</v>
       </c>
       <c r="M195" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N195" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O195" s="2">
         <v>44985.80833333333</v>
       </c>
       <c r="P195" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -12045,19 +12051,19 @@
         <v>985</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="M196" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N196" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O196" s="2">
         <v>44986.47986111111</v>
       </c>
       <c r="P196" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -12086,16 +12092,16 @@
         <v>892</v>
       </c>
       <c r="M197" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N197" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O197" s="2">
         <v>44985.80902777778</v>
       </c>
       <c r="P197" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -12130,19 +12136,19 @@
         <v>985</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="M198" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N198" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O198" s="2">
         <v>44985.80138888889</v>
       </c>
       <c r="P198" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -12177,19 +12183,19 @@
         <v>985</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="M199" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N199" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O199" s="2">
         <v>44985.80138888889</v>
       </c>
       <c r="P199" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -12215,16 +12221,16 @@
         <v>656</v>
       </c>
       <c r="M200" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N200" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O200" s="2">
         <v>44985.80902777778</v>
       </c>
       <c r="P200" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -12259,19 +12265,19 @@
         <v>986</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="M201" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N201" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O201" s="2">
         <v>44985.80138888889</v>
       </c>
       <c r="P201" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -12291,16 +12297,16 @@
         <v>593</v>
       </c>
       <c r="M202" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N202" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O202" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P202" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -12329,16 +12335,16 @@
         <v>893</v>
       </c>
       <c r="M203" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N203" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O203" s="2">
         <v>44985.80902777778</v>
       </c>
       <c r="P203" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -12373,19 +12379,19 @@
         <v>987</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M204" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N204" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O204" s="2">
         <v>44985.80138888889</v>
       </c>
       <c r="P204" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -12420,19 +12426,19 @@
         <v>988</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="M205" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N205" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O205" s="2">
         <v>44985.80138888889</v>
       </c>
       <c r="P205" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -12467,19 +12473,19 @@
         <v>989</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="M206" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N206" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O206" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P206" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -12514,19 +12520,19 @@
         <v>990</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="M207" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N207" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O207" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P207" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12561,16 +12567,16 @@
         <v>894</v>
       </c>
       <c r="M208" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N208" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O208" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P208" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12605,19 +12611,19 @@
         <v>991</v>
       </c>
       <c r="L209" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="M209" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N209" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O209" s="2">
         <v>44986.47986111111</v>
       </c>
       <c r="P209" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12643,16 +12649,16 @@
         <v>821</v>
       </c>
       <c r="M210" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N210" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O210" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P210" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12687,16 +12693,16 @@
         <v>895</v>
       </c>
       <c r="M211" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N211" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O211" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P211" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12731,19 +12737,19 @@
         <v>992</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="M212" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N212" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O212" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P212" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12778,19 +12784,19 @@
         <v>992</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="M213" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N213" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O213" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P213" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12825,19 +12831,19 @@
         <v>992</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="M214" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N214" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O214" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P214" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12872,19 +12878,19 @@
         <v>992</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="M215" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N215" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O215" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P215" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12919,19 +12925,19 @@
         <v>992</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="M216" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N216" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O216" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P216" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12966,19 +12972,19 @@
         <v>992</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="M217" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N217" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O217" s="2">
         <v>44985.73055555556</v>
       </c>
       <c r="P217" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -13013,19 +13019,19 @@
         <v>992</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M218" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N218" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O218" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P218" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -13060,19 +13066,19 @@
         <v>992</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="M219" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N219" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O219" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P219" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -13107,19 +13113,19 @@
         <v>992</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="M220" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N220" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O220" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P220" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -13154,19 +13160,19 @@
         <v>992</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="M221" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N221" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O221" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P221" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -13201,16 +13207,16 @@
         <v>896</v>
       </c>
       <c r="M222" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N222" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O222" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P222" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -13245,19 +13251,19 @@
         <v>993</v>
       </c>
       <c r="L223" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M223" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N223" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O223" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P223" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -13292,19 +13298,19 @@
         <v>993</v>
       </c>
       <c r="L224" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M224" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N224" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O224" s="2">
         <v>44991.61736111111</v>
       </c>
       <c r="P224" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -13336,16 +13342,16 @@
         <v>866</v>
       </c>
       <c r="M225" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N225" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O225" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P225" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -13380,19 +13386,19 @@
         <v>994</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="M226" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N226" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O226" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P226" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -13427,19 +13433,19 @@
         <v>995</v>
       </c>
       <c r="L227" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M227" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N227" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O227" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P227" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13474,19 +13480,19 @@
         <v>995</v>
       </c>
       <c r="L228" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M228" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N228" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O228" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P228" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -13509,16 +13515,16 @@
         <v>802</v>
       </c>
       <c r="M229" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N229" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O229" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P229" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13553,19 +13559,19 @@
         <v>996</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="M230" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N230" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O230" s="2">
         <v>44986.47986111111</v>
       </c>
       <c r="P230" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13600,16 +13606,16 @@
         <v>897</v>
       </c>
       <c r="M231" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N231" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O231" s="2">
         <v>44986.54027777778</v>
       </c>
       <c r="P231" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13644,19 +13650,19 @@
         <v>997</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M232" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N232" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O232" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P232" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13682,16 +13688,16 @@
         <v>823</v>
       </c>
       <c r="M233" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N233" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O233" s="2">
         <v>44986.54097222222</v>
       </c>
       <c r="P233" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13726,19 +13732,19 @@
         <v>998</v>
       </c>
       <c r="L234" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M234" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N234" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O234" s="2">
         <v>44986.52361111111</v>
       </c>
       <c r="P234" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13764,16 +13770,16 @@
         <v>823</v>
       </c>
       <c r="M235" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N235" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O235" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P235" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13808,19 +13814,19 @@
         <v>999</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="M236" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N236" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O236" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P236" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13855,19 +13861,19 @@
         <v>1000</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="M237" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N237" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O237" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P237" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13899,16 +13905,16 @@
         <v>898</v>
       </c>
       <c r="M238" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N238" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O238" s="2">
         <v>44985.80972222222</v>
       </c>
       <c r="P238" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13940,19 +13946,19 @@
         <v>821</v>
       </c>
       <c r="L239" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="M239" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N239" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O239" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P239" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13987,19 +13993,19 @@
         <v>1001</v>
       </c>
       <c r="L240" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="M240" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N240" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O240" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P240" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -14022,16 +14028,16 @@
         <v>806</v>
       </c>
       <c r="M241" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N241" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O241" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P241" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -14054,16 +14060,16 @@
         <v>806</v>
       </c>
       <c r="M242" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N242" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O242" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P242" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -14089,16 +14095,16 @@
         <v>806</v>
       </c>
       <c r="M243" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N243" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O243" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P243" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -14133,19 +14139,19 @@
         <v>1002</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="M244" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N244" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O244" s="2">
         <v>44986.47986111111</v>
       </c>
       <c r="P244" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -14168,16 +14174,16 @@
         <v>807</v>
       </c>
       <c r="M245" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N245" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O245" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P245" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -14212,16 +14218,16 @@
         <v>260</v>
       </c>
       <c r="M246" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N246" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O246" s="2">
         <v>44985.77916666667</v>
       </c>
       <c r="P246" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -14256,16 +14262,16 @@
         <v>261</v>
       </c>
       <c r="M247" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N247" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O247" s="2">
         <v>44985.77916666667</v>
       </c>
       <c r="P247" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -14300,19 +14306,19 @@
         <v>1003</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M248" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N248" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O248" s="2">
         <v>44986.47986111111</v>
       </c>
       <c r="P248" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14341,16 +14347,16 @@
         <v>263</v>
       </c>
       <c r="M249" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N249" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O249" s="2">
         <v>44985.80972222222</v>
       </c>
       <c r="P249" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14373,16 +14379,16 @@
         <v>899</v>
       </c>
       <c r="M250" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N250" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O250" s="2">
         <v>44986.55486111111</v>
       </c>
       <c r="P250" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14402,16 +14408,16 @@
         <v>436</v>
       </c>
       <c r="M251" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N251" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O251" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P251" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14431,16 +14437,16 @@
         <v>436</v>
       </c>
       <c r="M252" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N252" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O252" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P252" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14460,16 +14466,16 @@
         <v>436</v>
       </c>
       <c r="M253" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N253" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O253" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P253" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14489,16 +14495,16 @@
         <v>436</v>
       </c>
       <c r="M254" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N254" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O254" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P254" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14518,16 +14524,16 @@
         <v>436</v>
       </c>
       <c r="M255" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N255" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O255" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P255" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14559,16 +14565,16 @@
         <v>822</v>
       </c>
       <c r="M256" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="N256" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O256" s="2">
         <v>44986.44791666666</v>
       </c>
       <c r="P256" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14600,16 +14606,16 @@
         <v>841</v>
       </c>
       <c r="M257" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="N257" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O257" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P257" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14641,16 +14647,16 @@
         <v>841</v>
       </c>
       <c r="M258" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="N258" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O258" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P258" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14682,16 +14688,16 @@
         <v>841</v>
       </c>
       <c r="M259" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="N259" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O259" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P259" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14723,16 +14729,16 @@
         <v>870</v>
       </c>
       <c r="M260" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="N260" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O260" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P260" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14764,16 +14770,16 @@
         <v>822</v>
       </c>
       <c r="M261" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="N261" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O261" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P261" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14805,16 +14811,16 @@
         <v>841</v>
       </c>
       <c r="M262" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="N262" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O262" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P262" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14846,16 +14852,16 @@
         <v>841</v>
       </c>
       <c r="M263" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="N263" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O263" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P263" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14878,19 +14884,19 @@
         <v>811</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="M264" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N264" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O264" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P264" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -14913,19 +14919,19 @@
         <v>811</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="M265" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N265" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O265" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P265" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14948,19 +14954,19 @@
         <v>811</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="M266" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N266" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O266" s="2">
-        <v>44985.80347222222</v>
+        <v>44992.55833333333</v>
       </c>
       <c r="P266" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14983,19 +14989,19 @@
         <v>812</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="M267" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N267" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O267" s="2">
-        <v>44985.80347222222</v>
+        <v>44992.55902777778</v>
       </c>
       <c r="P267" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15030,19 +15036,19 @@
         <v>1004</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="M268" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N268" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O268" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P268" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15077,19 +15083,19 @@
         <v>1005</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="M269" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N269" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O269" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P269" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15124,19 +15130,19 @@
         <v>1006</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="M270" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N270" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O270" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P270" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15171,19 +15177,19 @@
         <v>1007</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="M271" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N271" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O271" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P271" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15212,19 +15218,19 @@
         <v>992</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="M272" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N272" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O272" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P272" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15262,19 +15268,19 @@
         <v>286</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M273" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N273" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O273" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P273" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15309,19 +15315,19 @@
         <v>908</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="M274" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N274" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O274" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P274" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15359,19 +15365,19 @@
         <v>909</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="M275" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N275" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O275" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P275" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15409,19 +15415,19 @@
         <v>910</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M276" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N276" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O276" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P276" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15456,19 +15462,19 @@
         <v>1008</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M277" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N277" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O277" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P277" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15506,19 +15512,19 @@
         <v>291</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M278" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N278" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O278" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P278" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15550,16 +15556,16 @@
         <v>291</v>
       </c>
       <c r="M279" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N279" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O279" s="2">
         <v>44986.55416666667</v>
       </c>
       <c r="P279" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15591,16 +15597,16 @@
         <v>291</v>
       </c>
       <c r="M280" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N280" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O280" s="2">
         <v>44986.55416666667</v>
       </c>
       <c r="P280" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -15632,16 +15638,16 @@
         <v>291</v>
       </c>
       <c r="M281" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N281" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O281" s="2">
         <v>44986.55416666667</v>
       </c>
       <c r="P281" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15676,19 +15682,19 @@
         <v>295</v>
       </c>
       <c r="L282" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="M282" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N282" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O282" s="2">
         <v>44986.55486111111</v>
       </c>
       <c r="P282" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15720,19 +15726,19 @@
         <v>821</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="M283" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N283" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O283" s="2">
         <v>44991.49722222222</v>
       </c>
       <c r="P283" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15764,19 +15770,19 @@
         <v>821</v>
       </c>
       <c r="L284" s="3" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="M284" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N284" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O284" s="2">
         <v>44991.49722222222</v>
       </c>
       <c r="P284" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -15822,54 +15828,55 @@
     <hyperlink ref="L155" r:id="rId39"/>
     <hyperlink ref="L156" r:id="rId40"/>
     <hyperlink ref="L178" r:id="rId41"/>
-    <hyperlink ref="L181" r:id="rId42"/>
-    <hyperlink ref="L191" r:id="rId43"/>
-    <hyperlink ref="L192" r:id="rId44"/>
-    <hyperlink ref="L193" r:id="rId45"/>
-    <hyperlink ref="L194" r:id="rId46"/>
-    <hyperlink ref="L196" r:id="rId47"/>
-    <hyperlink ref="L198" r:id="rId48"/>
-    <hyperlink ref="L199" r:id="rId49"/>
-    <hyperlink ref="L201" r:id="rId50"/>
-    <hyperlink ref="L204" r:id="rId51"/>
-    <hyperlink ref="L205" r:id="rId52"/>
-    <hyperlink ref="L206" r:id="rId53"/>
-    <hyperlink ref="L207" r:id="rId54"/>
-    <hyperlink ref="L209" r:id="rId55"/>
-    <hyperlink ref="L212" r:id="rId56"/>
-    <hyperlink ref="L213" r:id="rId57"/>
-    <hyperlink ref="L214" r:id="rId58"/>
-    <hyperlink ref="L215" r:id="rId59"/>
-    <hyperlink ref="L216" r:id="rId60"/>
-    <hyperlink ref="L217" r:id="rId61"/>
-    <hyperlink ref="L218" r:id="rId62"/>
-    <hyperlink ref="L219" r:id="rId63"/>
-    <hyperlink ref="L220" r:id="rId64"/>
-    <hyperlink ref="L221" r:id="rId65"/>
-    <hyperlink ref="L226" r:id="rId66"/>
-    <hyperlink ref="L230" r:id="rId67"/>
-    <hyperlink ref="L232" r:id="rId68"/>
-    <hyperlink ref="L236" r:id="rId69"/>
-    <hyperlink ref="L237" r:id="rId70"/>
-    <hyperlink ref="L244" r:id="rId71"/>
-    <hyperlink ref="L248" r:id="rId72"/>
-    <hyperlink ref="L264" r:id="rId73"/>
-    <hyperlink ref="L265" r:id="rId74"/>
-    <hyperlink ref="L266" r:id="rId75"/>
-    <hyperlink ref="L267" r:id="rId76"/>
-    <hyperlink ref="L268" r:id="rId77"/>
-    <hyperlink ref="L269" r:id="rId78"/>
-    <hyperlink ref="L270" r:id="rId79"/>
-    <hyperlink ref="L271" r:id="rId80"/>
-    <hyperlink ref="L272" r:id="rId81"/>
-    <hyperlink ref="L273" r:id="rId82"/>
-    <hyperlink ref="L274" r:id="rId83"/>
-    <hyperlink ref="L275" r:id="rId84"/>
-    <hyperlink ref="L276" r:id="rId85"/>
-    <hyperlink ref="L277" r:id="rId86"/>
-    <hyperlink ref="L278" r:id="rId87"/>
-    <hyperlink ref="L283" r:id="rId88"/>
-    <hyperlink ref="L284" r:id="rId89"/>
+    <hyperlink ref="L180" r:id="rId42"/>
+    <hyperlink ref="L181" r:id="rId43"/>
+    <hyperlink ref="L191" r:id="rId44"/>
+    <hyperlink ref="L192" r:id="rId45"/>
+    <hyperlink ref="L193" r:id="rId46"/>
+    <hyperlink ref="L194" r:id="rId47"/>
+    <hyperlink ref="L196" r:id="rId48"/>
+    <hyperlink ref="L198" r:id="rId49"/>
+    <hyperlink ref="L199" r:id="rId50"/>
+    <hyperlink ref="L201" r:id="rId51"/>
+    <hyperlink ref="L204" r:id="rId52"/>
+    <hyperlink ref="L205" r:id="rId53"/>
+    <hyperlink ref="L206" r:id="rId54"/>
+    <hyperlink ref="L207" r:id="rId55"/>
+    <hyperlink ref="L209" r:id="rId56"/>
+    <hyperlink ref="L212" r:id="rId57"/>
+    <hyperlink ref="L213" r:id="rId58"/>
+    <hyperlink ref="L214" r:id="rId59"/>
+    <hyperlink ref="L215" r:id="rId60"/>
+    <hyperlink ref="L216" r:id="rId61"/>
+    <hyperlink ref="L217" r:id="rId62"/>
+    <hyperlink ref="L218" r:id="rId63"/>
+    <hyperlink ref="L219" r:id="rId64"/>
+    <hyperlink ref="L220" r:id="rId65"/>
+    <hyperlink ref="L221" r:id="rId66"/>
+    <hyperlink ref="L226" r:id="rId67"/>
+    <hyperlink ref="L230" r:id="rId68"/>
+    <hyperlink ref="L232" r:id="rId69"/>
+    <hyperlink ref="L236" r:id="rId70"/>
+    <hyperlink ref="L237" r:id="rId71"/>
+    <hyperlink ref="L244" r:id="rId72"/>
+    <hyperlink ref="L248" r:id="rId73"/>
+    <hyperlink ref="L264" r:id="rId74"/>
+    <hyperlink ref="L265" r:id="rId75"/>
+    <hyperlink ref="L266" r:id="rId76"/>
+    <hyperlink ref="L267" r:id="rId77"/>
+    <hyperlink ref="L268" r:id="rId78"/>
+    <hyperlink ref="L269" r:id="rId79"/>
+    <hyperlink ref="L270" r:id="rId80"/>
+    <hyperlink ref="L271" r:id="rId81"/>
+    <hyperlink ref="L272" r:id="rId82"/>
+    <hyperlink ref="L273" r:id="rId83"/>
+    <hyperlink ref="L274" r:id="rId84"/>
+    <hyperlink ref="L275" r:id="rId85"/>
+    <hyperlink ref="L276" r:id="rId86"/>
+    <hyperlink ref="L277" r:id="rId87"/>
+    <hyperlink ref="L278" r:id="rId88"/>
+    <hyperlink ref="L283" r:id="rId89"/>
+    <hyperlink ref="L284" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
